--- a/rekap (corpus) full 2.xlsx
+++ b/rekap (corpus) full 2.xlsx
@@ -4,35 +4,34 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="info" sheetId="7" r:id="rId1"/>
-    <sheet name="mae" sheetId="1" r:id="rId2"/>
-    <sheet name="micro_2" sheetId="3" r:id="rId3"/>
-    <sheet name="micro_3" sheetId="4" r:id="rId4"/>
-    <sheet name="micro_6" sheetId="5" r:id="rId5"/>
-    <sheet name="micro_11" sheetId="6" r:id="rId6"/>
-    <sheet name="macro_2" sheetId="8" r:id="rId7"/>
-    <sheet name="macro_3" sheetId="10" r:id="rId8"/>
-    <sheet name="macro_6" sheetId="11" r:id="rId9"/>
-    <sheet name="macro_11" sheetId="12" r:id="rId10"/>
+    <sheet name="mae" sheetId="1" r:id="rId1"/>
+    <sheet name="micro_2" sheetId="3" r:id="rId2"/>
+    <sheet name="micro_3" sheetId="4" r:id="rId3"/>
+    <sheet name="micro_6" sheetId="5" r:id="rId4"/>
+    <sheet name="micro_11" sheetId="6" r:id="rId5"/>
+    <sheet name="macro_2" sheetId="8" r:id="rId6"/>
+    <sheet name="macro_3" sheetId="10" r:id="rId7"/>
+    <sheet name="macro_6" sheetId="11" r:id="rId8"/>
+    <sheet name="macro_11" sheetId="12" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="mae_1" localSheetId="1">mae!$A$2:$E$11</definedName>
-    <definedName name="performa" localSheetId="2">micro_2!#REF!</definedName>
-    <definedName name="performa" localSheetId="3">micro_3!$A$3:$G$61</definedName>
-    <definedName name="performa" localSheetId="4">micro_6!#REF!</definedName>
-    <definedName name="performa__1" localSheetId="9">macro_11!$D$3:$O$31</definedName>
-    <definedName name="performa__1" localSheetId="6">macro_2!$D$3:$O$31</definedName>
-    <definedName name="performa__1" localSheetId="7">macro_3!$D$3:$O$31</definedName>
-    <definedName name="performa__1" localSheetId="8">macro_6!$D$3:$O$31</definedName>
-    <definedName name="performa__1" localSheetId="2">micro_2!$D$3:$O$31</definedName>
-    <definedName name="performa__2" localSheetId="9">macro_11!$E$3:$S$31</definedName>
-    <definedName name="performa__2" localSheetId="6">macro_2!$E$3:$S$31</definedName>
-    <definedName name="performa__2" localSheetId="7">macro_3!$E$3:$S$31</definedName>
-    <definedName name="performa__2" localSheetId="8">macro_6!$E$3:$S$31</definedName>
-    <definedName name="performa__2" localSheetId="2">micro_2!$E$3:$S$31</definedName>
+    <definedName name="mae_1" localSheetId="0">mae!$A$2:$E$11</definedName>
+    <definedName name="performa" localSheetId="1">micro_2!#REF!</definedName>
+    <definedName name="performa" localSheetId="2">micro_3!$A$3:$G$61</definedName>
+    <definedName name="performa" localSheetId="3">micro_6!#REF!</definedName>
+    <definedName name="performa__1" localSheetId="8">macro_11!$D$3:$O$31</definedName>
+    <definedName name="performa__1" localSheetId="5">macro_2!$D$3:$O$31</definedName>
+    <definedName name="performa__1" localSheetId="6">macro_3!$D$3:$O$31</definedName>
+    <definedName name="performa__1" localSheetId="7">macro_6!$D$3:$O$31</definedName>
+    <definedName name="performa__1" localSheetId="1">micro_2!$D$3:$O$31</definedName>
+    <definedName name="performa__2" localSheetId="8">macro_11!$E$3:$S$31</definedName>
+    <definedName name="performa__2" localSheetId="5">macro_2!$E$3:$S$31</definedName>
+    <definedName name="performa__2" localSheetId="6">macro_3!$E$3:$S$31</definedName>
+    <definedName name="performa__2" localSheetId="7">macro_6!$E$3:$S$31</definedName>
+    <definedName name="performa__2" localSheetId="1">micro_2!$E$3:$S$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -209,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="10">
   <si>
     <t>ID_SCENARIO</t>
   </si>
@@ -233,27 +232,6 @@
   </si>
   <si>
     <t>F_MEASURE</t>
-  </si>
-  <si>
-    <t>svd</t>
-  </si>
-  <si>
-    <t>skenario</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>sampai</t>
-  </si>
-  <si>
-    <t>jawaban</t>
-  </si>
-  <si>
-    <t>soal</t>
-  </si>
-  <si>
-    <t>dari</t>
   </si>
   <si>
     <t>k</t>
@@ -751,11 +729,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1784271616"/>
-        <c:axId val="1784276512"/>
+        <c:axId val="1540574016"/>
+        <c:axId val="1540577824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1784271616"/>
+        <c:axId val="1540574016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,7 +776,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784276512"/>
+        <c:crossAx val="1540577824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -806,7 +784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1784276512"/>
+        <c:axId val="1540577824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,7 +821,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784271616"/>
+        <c:crossAx val="1540574016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -976,7 +954,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1354,11 +1331,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1784268896"/>
-        <c:axId val="1784270528"/>
+        <c:axId val="1540576192"/>
+        <c:axId val="1540576736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1784268896"/>
+        <c:axId val="1540576192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,7 +1378,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784270528"/>
+        <c:crossAx val="1540576736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1409,7 +1386,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1784270528"/>
+        <c:axId val="1540576736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1446,7 +1423,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784268896"/>
+        <c:crossAx val="1540576192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1472,7 +1449,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1580,7 +1556,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1746,11 +1721,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1784265088"/>
-        <c:axId val="1784267808"/>
+        <c:axId val="1540581632"/>
+        <c:axId val="1540582720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1784265088"/>
+        <c:axId val="1540581632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1793,7 +1768,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784267808"/>
+        <c:crossAx val="1540582720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1801,7 +1776,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1784267808"/>
+        <c:axId val="1540582720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1852,7 +1827,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784265088"/>
+        <c:crossAx val="1540581632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1942,7 +1917,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2320,11 +2294,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1784271072"/>
-        <c:axId val="1784273792"/>
+        <c:axId val="1540583264"/>
+        <c:axId val="1540583808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1784271072"/>
+        <c:axId val="1540583264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2367,7 +2341,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784273792"/>
+        <c:crossAx val="1540583808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2375,7 +2349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1784273792"/>
+        <c:axId val="1540583808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2412,7 +2386,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784271072"/>
+        <c:crossAx val="1540583264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2438,7 +2412,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2546,7 +2519,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2924,11 +2896,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1784274336"/>
-        <c:axId val="1784274880"/>
+        <c:axId val="1540584896"/>
+        <c:axId val="1540585440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1784274336"/>
+        <c:axId val="1540584896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2971,7 +2943,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784274880"/>
+        <c:crossAx val="1540585440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2979,7 +2951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1784274880"/>
+        <c:axId val="1540585440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3016,7 +2988,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784274336"/>
+        <c:crossAx val="1540584896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3042,7 +3014,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3149,7 +3120,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3527,11 +3497,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1784275424"/>
-        <c:axId val="1784275968"/>
+        <c:axId val="1416881440"/>
+        <c:axId val="1416887424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1784275424"/>
+        <c:axId val="1416881440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3574,7 +3544,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784275968"/>
+        <c:crossAx val="1416887424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3582,7 +3552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1784275968"/>
+        <c:axId val="1416887424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3619,7 +3589,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784275424"/>
+        <c:crossAx val="1416881440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3645,7 +3615,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3752,7 +3721,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4130,11 +4098,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1783399600"/>
-        <c:axId val="1783400688"/>
+        <c:axId val="1416879264"/>
+        <c:axId val="1416887968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1783399600"/>
+        <c:axId val="1416879264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4177,7 +4145,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783400688"/>
+        <c:crossAx val="1416887968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4185,7 +4153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1783400688"/>
+        <c:axId val="1416887968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4222,7 +4190,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783399600"/>
+        <c:crossAx val="1416879264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4248,7 +4216,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4356,7 +4323,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4522,11 +4488,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1783411024"/>
-        <c:axId val="1783411568"/>
+        <c:axId val="1416880352"/>
+        <c:axId val="1416893408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1783411024"/>
+        <c:axId val="1416880352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4569,7 +4535,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783411568"/>
+        <c:crossAx val="1416893408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4577,7 +4543,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1783411568"/>
+        <c:axId val="1416893408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4628,7 +4594,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783411024"/>
+        <c:crossAx val="1416880352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4718,7 +4684,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5096,11 +5061,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1783399056"/>
-        <c:axId val="1783412112"/>
+        <c:axId val="1416890688"/>
+        <c:axId val="1416888512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1783399056"/>
+        <c:axId val="1416890688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5143,7 +5108,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783412112"/>
+        <c:crossAx val="1416888512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5151,7 +5116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1783412112"/>
+        <c:axId val="1416888512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5188,7 +5153,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783399056"/>
+        <c:crossAx val="1416890688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5214,7 +5179,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5322,7 +5286,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5700,11 +5663,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1783397424"/>
-        <c:axId val="1783412656"/>
+        <c:axId val="1416879808"/>
+        <c:axId val="1416885792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1783397424"/>
+        <c:axId val="1416879808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5747,7 +5710,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783412656"/>
+        <c:crossAx val="1416885792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5755,7 +5718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1783412656"/>
+        <c:axId val="1416885792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5792,7 +5755,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783397424"/>
+        <c:crossAx val="1416879808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5818,7 +5781,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5925,7 +5887,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6303,11 +6264,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1783400144"/>
-        <c:axId val="1783401232"/>
+        <c:axId val="1416886336"/>
+        <c:axId val="1416883616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1783400144"/>
+        <c:axId val="1416886336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6350,7 +6311,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783401232"/>
+        <c:crossAx val="1416883616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6358,7 +6319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1783401232"/>
+        <c:axId val="1416883616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6395,7 +6356,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783400144"/>
+        <c:crossAx val="1416886336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6421,7 +6382,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6529,7 +6489,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6907,11 +6866,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1784269440"/>
-        <c:axId val="1784272704"/>
+        <c:axId val="1540580544"/>
+        <c:axId val="1540573472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1784269440"/>
+        <c:axId val="1540580544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6954,7 +6913,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784272704"/>
+        <c:crossAx val="1540573472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6962,7 +6921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1784272704"/>
+        <c:axId val="1540573472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6999,7 +6958,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784269440"/>
+        <c:crossAx val="1540580544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7025,7 +6984,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7132,7 +7090,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7510,11 +7467,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1783401776"/>
-        <c:axId val="1783405040"/>
+        <c:axId val="1416884160"/>
+        <c:axId val="1416886880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1783401776"/>
+        <c:axId val="1416884160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7557,7 +7514,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783405040"/>
+        <c:crossAx val="1416886880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7565,7 +7522,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1783405040"/>
+        <c:axId val="1416886880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7602,7 +7559,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783401776"/>
+        <c:crossAx val="1416884160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7628,7 +7585,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7736,7 +7692,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7902,11 +7857,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1783403408"/>
-        <c:axId val="1783406672"/>
+        <c:axId val="1416891232"/>
+        <c:axId val="1416889056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1783403408"/>
+        <c:axId val="1416891232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7949,7 +7904,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783406672"/>
+        <c:crossAx val="1416889056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7957,7 +7912,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1783406672"/>
+        <c:axId val="1416889056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8008,7 +7963,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783403408"/>
+        <c:crossAx val="1416891232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8098,7 +8053,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8476,11 +8430,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1783408304"/>
-        <c:axId val="1783397968"/>
+        <c:axId val="1416891776"/>
+        <c:axId val="1416893952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1783408304"/>
+        <c:axId val="1416891776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8523,7 +8477,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783397968"/>
+        <c:crossAx val="1416893952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8531,7 +8485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1783397968"/>
+        <c:axId val="1416893952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8568,7 +8522,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783408304"/>
+        <c:crossAx val="1416891776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8594,7 +8548,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8702,7 +8655,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9080,11 +9032,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1783398512"/>
-        <c:axId val="1783407760"/>
+        <c:axId val="1416878720"/>
+        <c:axId val="1416881984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1783398512"/>
+        <c:axId val="1416878720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9127,7 +9079,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783407760"/>
+        <c:crossAx val="1416881984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9135,7 +9087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1783407760"/>
+        <c:axId val="1416881984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9172,7 +9124,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783398512"/>
+        <c:crossAx val="1416878720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9198,7 +9150,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9305,7 +9256,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9683,11 +9633,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1783403952"/>
-        <c:axId val="1783402320"/>
+        <c:axId val="1416892320"/>
+        <c:axId val="1416883072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1783403952"/>
+        <c:axId val="1416892320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9730,7 +9680,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783402320"/>
+        <c:crossAx val="1416883072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9738,7 +9688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1783402320"/>
+        <c:axId val="1416883072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9775,7 +9725,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783403952"/>
+        <c:crossAx val="1416892320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9801,7 +9751,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9908,7 +9857,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10286,11 +10234,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1783402864"/>
-        <c:axId val="1783408848"/>
+        <c:axId val="1322860400"/>
+        <c:axId val="1322866384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1783402864"/>
+        <c:axId val="1322860400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10333,7 +10281,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783408848"/>
+        <c:crossAx val="1322866384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10341,7 +10289,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1783408848"/>
+        <c:axId val="1322866384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10378,7 +10326,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783402864"/>
+        <c:crossAx val="1322860400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10404,7 +10352,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10512,7 +10459,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10678,11 +10624,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1783407216"/>
-        <c:axId val="1783409392"/>
+        <c:axId val="1322857136"/>
+        <c:axId val="1322855504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1783407216"/>
+        <c:axId val="1322857136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10725,7 +10671,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783409392"/>
+        <c:crossAx val="1322855504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10733,7 +10679,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1783409392"/>
+        <c:axId val="1322855504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10784,7 +10730,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783407216"/>
+        <c:crossAx val="1322857136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10874,7 +10820,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11252,11 +11197,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1783404496"/>
-        <c:axId val="1783409936"/>
+        <c:axId val="1139893632"/>
+        <c:axId val="1412628864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1783404496"/>
+        <c:axId val="1139893632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11299,7 +11244,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783409936"/>
+        <c:crossAx val="1412628864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11307,7 +11252,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1783409936"/>
+        <c:axId val="1412628864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11344,7 +11289,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783404496"/>
+        <c:crossAx val="1139893632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11370,7 +11315,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11478,7 +11422,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11856,11 +11799,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1783405584"/>
-        <c:axId val="1783406128"/>
+        <c:axId val="1412621792"/>
+        <c:axId val="1412627232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1783405584"/>
+        <c:axId val="1412621792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11903,7 +11846,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783406128"/>
+        <c:crossAx val="1412627232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11911,7 +11854,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1783406128"/>
+        <c:axId val="1412627232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11948,7 +11891,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783405584"/>
+        <c:crossAx val="1412621792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11974,7 +11917,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12081,7 +12023,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12459,11 +12400,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1783410480"/>
-        <c:axId val="1888788960"/>
+        <c:axId val="1412632672"/>
+        <c:axId val="1412635392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1783410480"/>
+        <c:axId val="1412632672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12506,7 +12447,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888788960"/>
+        <c:crossAx val="1412635392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12514,7 +12455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1888788960"/>
+        <c:axId val="1412635392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12551,7 +12492,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783410480"/>
+        <c:crossAx val="1412632672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12577,7 +12518,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12685,7 +12625,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13063,11 +13002,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1784264544"/>
-        <c:axId val="1784262368"/>
+        <c:axId val="1540571296"/>
+        <c:axId val="1540579456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1784264544"/>
+        <c:axId val="1540571296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13110,7 +13049,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784262368"/>
+        <c:crossAx val="1540579456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13118,7 +13057,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1784262368"/>
+        <c:axId val="1540579456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13155,7 +13094,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784264544"/>
+        <c:crossAx val="1540571296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13181,7 +13120,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13288,7 +13226,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13666,11 +13603,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1888780256"/>
-        <c:axId val="1888790592"/>
+        <c:axId val="1412627776"/>
+        <c:axId val="1412632128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1888780256"/>
+        <c:axId val="1412627776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13713,7 +13650,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888790592"/>
+        <c:crossAx val="1412632128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13721,7 +13658,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1888790592"/>
+        <c:axId val="1412632128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13758,7 +13695,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888780256"/>
+        <c:crossAx val="1412627776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13784,7 +13721,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13892,7 +13828,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14058,11 +13993,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1888790048"/>
-        <c:axId val="1888789504"/>
+        <c:axId val="1412633216"/>
+        <c:axId val="1412629408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1888790048"/>
+        <c:axId val="1412633216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14105,7 +14040,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888789504"/>
+        <c:crossAx val="1412629408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14113,7 +14048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1888789504"/>
+        <c:axId val="1412629408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14164,7 +14099,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888790048"/>
+        <c:crossAx val="1412633216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14254,7 +14189,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14632,11 +14566,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1888778624"/>
-        <c:axId val="1888775904"/>
+        <c:axId val="1412623968"/>
+        <c:axId val="1412634304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1888778624"/>
+        <c:axId val="1412623968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14679,7 +14613,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888775904"/>
+        <c:crossAx val="1412634304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14687,7 +14621,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1888775904"/>
+        <c:axId val="1412634304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14724,7 +14658,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888778624"/>
+        <c:crossAx val="1412623968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14750,7 +14684,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14858,7 +14791,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15236,11 +15168,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1888785696"/>
-        <c:axId val="1888780800"/>
+        <c:axId val="1412622336"/>
+        <c:axId val="1412630496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1888785696"/>
+        <c:axId val="1412622336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15283,7 +15215,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888780800"/>
+        <c:crossAx val="1412630496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15291,7 +15223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1888780800"/>
+        <c:axId val="1412630496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15328,7 +15260,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888785696"/>
+        <c:crossAx val="1412622336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15354,7 +15286,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15461,7 +15392,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15839,11 +15769,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1888786240"/>
-        <c:axId val="1888785152"/>
+        <c:axId val="1412621248"/>
+        <c:axId val="1412625600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1888786240"/>
+        <c:axId val="1412621248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15886,7 +15816,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888785152"/>
+        <c:crossAx val="1412625600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15894,7 +15824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1888785152"/>
+        <c:axId val="1412625600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15931,7 +15861,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888786240"/>
+        <c:crossAx val="1412621248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15957,7 +15887,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16064,7 +15993,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16442,11 +16370,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1888791136"/>
-        <c:axId val="1888776448"/>
+        <c:axId val="1412622880"/>
+        <c:axId val="1412623424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1888791136"/>
+        <c:axId val="1412622880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16489,7 +16417,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888776448"/>
+        <c:crossAx val="1412623424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16497,7 +16425,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1888776448"/>
+        <c:axId val="1412623424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16534,7 +16462,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888791136"/>
+        <c:crossAx val="1412622880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16560,7 +16488,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16668,7 +16595,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16834,11 +16760,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1888779712"/>
-        <c:axId val="1888776992"/>
+        <c:axId val="1412625056"/>
+        <c:axId val="1412626144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1888779712"/>
+        <c:axId val="1412625056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16881,7 +16807,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888776992"/>
+        <c:crossAx val="1412626144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16889,7 +16815,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1888776992"/>
+        <c:axId val="1412626144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16940,7 +16866,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888779712"/>
+        <c:crossAx val="1412625056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17030,7 +16956,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17408,11 +17333,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1888777536"/>
-        <c:axId val="1888783520"/>
+        <c:axId val="1412626688"/>
+        <c:axId val="1412624512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1888777536"/>
+        <c:axId val="1412626688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17455,7 +17380,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888783520"/>
+        <c:crossAx val="1412624512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17463,7 +17388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1888783520"/>
+        <c:axId val="1412624512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17500,7 +17425,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888777536"/>
+        <c:crossAx val="1412626688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17526,7 +17451,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17634,7 +17558,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18012,11 +17935,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1888779168"/>
-        <c:axId val="1888781888"/>
+        <c:axId val="1412634848"/>
+        <c:axId val="1412628320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1888779168"/>
+        <c:axId val="1412634848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18059,7 +17982,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888781888"/>
+        <c:crossAx val="1412628320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18067,7 +17990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1888781888"/>
+        <c:axId val="1412628320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18104,7 +18027,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888779168"/>
+        <c:crossAx val="1412634848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18130,7 +18053,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18237,7 +18159,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18615,11 +18536,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1888782976"/>
-        <c:axId val="1888778080"/>
+        <c:axId val="1412633760"/>
+        <c:axId val="1412631584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1888782976"/>
+        <c:axId val="1412633760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18662,7 +18583,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888778080"/>
+        <c:crossAx val="1412631584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18670,7 +18591,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1888778080"/>
+        <c:axId val="1412631584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18707,7 +18628,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888782976"/>
+        <c:crossAx val="1412633760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18733,7 +18654,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18840,7 +18760,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19218,11 +19137,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1784277056"/>
-        <c:axId val="1784262912"/>
+        <c:axId val="1540585984"/>
+        <c:axId val="1540574560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1784277056"/>
+        <c:axId val="1540585984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19265,7 +19184,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784262912"/>
+        <c:crossAx val="1540574560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19273,7 +19192,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1784262912"/>
+        <c:axId val="1540574560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19310,7 +19229,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784277056"/>
+        <c:crossAx val="1540585984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19336,7 +19255,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19443,7 +19361,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19821,11 +19738,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1888786784"/>
-        <c:axId val="1888784064"/>
+        <c:axId val="1412636480"/>
+        <c:axId val="1412631040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1888786784"/>
+        <c:axId val="1412636480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19868,7 +19785,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888784064"/>
+        <c:crossAx val="1412631040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19876,7 +19793,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1888784064"/>
+        <c:axId val="1412631040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19913,7 +19830,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888786784"/>
+        <c:crossAx val="1412636480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19939,7 +19856,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20047,7 +19963,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20213,11 +20128,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1888781344"/>
-        <c:axId val="1888784608"/>
+        <c:axId val="1412629952"/>
+        <c:axId val="1412635936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1888781344"/>
+        <c:axId val="1412629952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20260,7 +20175,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888784608"/>
+        <c:crossAx val="1412635936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20268,7 +20183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1888784608"/>
+        <c:axId val="1412635936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20319,7 +20234,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1888781344"/>
+        <c:crossAx val="1412629952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20408,7 +20323,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20786,11 +20700,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1784267264"/>
-        <c:axId val="1784265632"/>
+        <c:axId val="1540577280"/>
+        <c:axId val="1540571840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1784267264"/>
+        <c:axId val="1540577280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20833,7 +20747,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784265632"/>
+        <c:crossAx val="1540571840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20841,7 +20755,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1784265632"/>
+        <c:axId val="1540571840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20878,7 +20792,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784267264"/>
+        <c:crossAx val="1540577280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20904,7 +20818,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21012,7 +20925,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21178,11 +21090,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1784277600"/>
-        <c:axId val="1784264000"/>
+        <c:axId val="1540578368"/>
+        <c:axId val="1540582176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1784277600"/>
+        <c:axId val="1540578368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21225,7 +21137,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784264000"/>
+        <c:crossAx val="1540582176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21233,7 +21145,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1784264000"/>
+        <c:axId val="1540582176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21284,7 +21196,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784277600"/>
+        <c:crossAx val="1540578368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21374,7 +21286,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21752,11 +21663,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1784268352"/>
-        <c:axId val="1784273248"/>
+        <c:axId val="1540580000"/>
+        <c:axId val="1540578912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1784268352"/>
+        <c:axId val="1540580000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21799,7 +21710,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784273248"/>
+        <c:crossAx val="1540578912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21807,7 +21718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1784273248"/>
+        <c:axId val="1540578912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21844,7 +21755,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784268352"/>
+        <c:crossAx val="1540580000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21870,7 +21781,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21978,7 +21888,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22356,11 +22265,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1784266720"/>
-        <c:axId val="1784269984"/>
+        <c:axId val="1540575104"/>
+        <c:axId val="1540575648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1784266720"/>
+        <c:axId val="1540575104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22403,7 +22312,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784269984"/>
+        <c:crossAx val="1540575648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22411,7 +22320,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1784269984"/>
+        <c:axId val="1540575648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22448,7 +22357,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784266720"/>
+        <c:crossAx val="1540575104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22474,7 +22383,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22581,7 +22489,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22959,11 +22866,11 @@
           </c:spPr>
         </c:dropLines>
         <c:smooth val="0"/>
-        <c:axId val="1784272160"/>
-        <c:axId val="1784263456"/>
+        <c:axId val="1540584352"/>
+        <c:axId val="1540581088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1784272160"/>
+        <c:axId val="1540584352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23006,7 +22913,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784263456"/>
+        <c:crossAx val="1540581088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23014,7 +22921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1784263456"/>
+        <c:axId val="1540581088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23051,7 +22958,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784272160"/>
+        <c:crossAx val="1540584352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23077,7 +22984,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -47912,7 +47818,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="performa (2)" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="performa (1)" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -47924,11 +47830,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="performa (2)" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="performa (1)" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="performa (1)" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="performa (2)" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -47952,7 +47858,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="performa (1)" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="performa (2)" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -48242,111 +48148,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>201</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.79912300000000003</v>
+      </c>
+      <c r="D2">
+        <v>0.84956100000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.79912300000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>202</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.85319100000000003</v>
+      </c>
+      <c r="D3">
+        <v>0.86800999999999995</v>
+      </c>
+      <c r="E3">
+        <v>1.0458400000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>203</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0.87511000000000005</v>
+      </c>
+      <c r="D4">
+        <v>0.86096899999999998</v>
+      </c>
+      <c r="E4">
+        <v>1.43526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>204</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0.90943200000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.88312000000000002</v>
+      </c>
+      <c r="E5">
+        <v>1.49665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>205</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1.03169</v>
+      </c>
+      <c r="D6">
+        <v>0.94782599999999995</v>
+      </c>
+      <c r="E6">
+        <v>1.4405699999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>206</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1.09806</v>
+      </c>
+      <c r="D7">
+        <v>0.99423600000000001</v>
+      </c>
+      <c r="E7">
+        <v>1.43631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>207</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1.2227600000000001</v>
+      </c>
+      <c r="D8">
+        <v>1.0624499999999999</v>
+      </c>
+      <c r="E8">
+        <v>1.4890699999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>208</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1.3149299999999999</v>
+      </c>
+      <c r="D9">
+        <v>1.11866</v>
+      </c>
+      <c r="E9">
+        <v>1.5693600000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>209</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C10">
+        <v>1.4125399999999999</v>
+      </c>
+      <c r="D10">
+        <v>1.16394</v>
+      </c>
+      <c r="E10">
+        <v>1.6312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>210</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6">
-        <v>2280</v>
+      <c r="C11">
+        <v>1.4595100000000001</v>
+      </c>
+      <c r="D11">
+        <v>1.22692</v>
+      </c>
+      <c r="E11">
+        <v>1.6026100000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C3" sqref="C3:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48382,7 +48395,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -48429,40 +48442,40 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.8182999491691499E-2</v>
+        <v>0.92368400096893299</v>
       </c>
       <c r="D3">
-        <v>5.3119000047445297E-2</v>
+        <v>0.91842097043991</v>
       </c>
       <c r="E3">
-        <v>5.8182999491691499E-2</v>
+        <v>0.92368400096893299</v>
       </c>
       <c r="F3">
-        <v>8.9996002614498097E-2</v>
+        <v>0.92368400096893299</v>
       </c>
       <c r="G3">
-        <v>8.9073002338409396E-2</v>
+        <v>0.91842097043991</v>
       </c>
       <c r="H3">
-        <v>8.9996002614498097E-2</v>
+        <v>0.92368400096893299</v>
       </c>
       <c r="I3">
-        <v>0.51228100061416604</v>
+        <v>0.92368400096893299</v>
       </c>
       <c r="J3">
-        <v>0.50745600461959794</v>
+        <v>0.91842097043991</v>
       </c>
       <c r="K3">
-        <v>0.51228100061416604</v>
+        <v>0.92368400096893299</v>
       </c>
       <c r="L3">
-        <v>7.0675000548362704E-2</v>
+        <v>0.92368400096893299</v>
       </c>
       <c r="M3">
-        <v>6.6550001502037007E-2</v>
+        <v>0.91842097043991</v>
       </c>
       <c r="N3">
-        <v>7.0675000548362704E-2</v>
+        <v>0.92368400096893299</v>
       </c>
     </row>
     <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -48473,40 +48486,40 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>8.3970002830028506E-2</v>
+        <v>0.90614002943038896</v>
       </c>
       <c r="D4">
-        <v>0.127535000443458</v>
+        <v>0.89736801385879505</v>
       </c>
       <c r="E4">
-        <v>0.106251001358032</v>
+        <v>0.83377200365066495</v>
       </c>
       <c r="F4">
-        <v>7.1175001561641693E-2</v>
+        <v>0.90614002943038896</v>
       </c>
       <c r="G4">
-        <v>6.53669983148574E-2</v>
+        <v>0.89736801385879505</v>
       </c>
       <c r="H4">
-        <v>4.6755999326705898E-2</v>
+        <v>0.83377200365066495</v>
       </c>
       <c r="I4">
-        <v>0.45964899659156799</v>
+        <v>0.90614002943038896</v>
       </c>
       <c r="J4">
-        <v>0.44517499208450301</v>
+        <v>0.89736801385879505</v>
       </c>
       <c r="K4">
-        <v>0.36403501033782898</v>
+        <v>0.83377200365066495</v>
       </c>
       <c r="L4">
-        <v>7.7045001089572906E-2</v>
+        <v>0.90614002943038896</v>
       </c>
       <c r="M4">
-        <v>8.6433999240398393E-2</v>
+        <v>0.89736801385879505</v>
       </c>
       <c r="N4">
-        <v>6.4935997128486606E-2</v>
+        <v>0.83377200365066495</v>
       </c>
     </row>
     <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -48517,40 +48530,40 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>9.2142999172210693E-2</v>
+        <v>0.89912301301956099</v>
       </c>
       <c r="D5">
-        <v>0.119975000619888</v>
+        <v>0.89035099744796697</v>
       </c>
       <c r="E5">
-        <v>0.123657003045082</v>
+        <v>0.71491199731826705</v>
       </c>
       <c r="F5">
-        <v>5.3909000009298297E-2</v>
+        <v>0.89912301301956099</v>
       </c>
       <c r="G5">
-        <v>5.5222000926733003E-2</v>
+        <v>0.89035099744796697</v>
       </c>
       <c r="H5">
-        <v>2.89869997650384E-2</v>
+        <v>0.71491199731826705</v>
       </c>
       <c r="I5">
-        <v>0.38859599828719998</v>
+        <v>0.89912301301956099</v>
       </c>
       <c r="J5">
-        <v>0.396052986383438</v>
+        <v>0.89035099744796697</v>
       </c>
       <c r="K5">
-        <v>0.25087699294090199</v>
+        <v>0.71491199731826705</v>
       </c>
       <c r="L5">
-        <v>6.8021997809410095E-2</v>
+        <v>0.89912301301956099</v>
       </c>
       <c r="M5">
-        <v>7.5631998479366302E-2</v>
+        <v>0.89035099744796697</v>
       </c>
       <c r="N5">
-        <v>4.6964000910520498E-2</v>
+        <v>0.71491199731826705</v>
       </c>
     </row>
     <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -48561,40 +48574,40 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.122380003333091</v>
+        <v>0.88333302736282304</v>
       </c>
       <c r="D6">
-        <v>0.124208003282547</v>
+        <v>0.88201802968978804</v>
       </c>
       <c r="E6">
-        <v>0.119356997311115</v>
+        <v>0.721490979194641</v>
       </c>
       <c r="F6">
-        <v>4.80160005390644E-2</v>
+        <v>0.88333302736282304</v>
       </c>
       <c r="G6">
-        <v>5.0195001065731E-2</v>
+        <v>0.88201802968978804</v>
       </c>
       <c r="H6">
-        <v>2.6328999549150401E-2</v>
+        <v>0.721490979194641</v>
       </c>
       <c r="I6">
-        <v>0.360087990760803</v>
+        <v>0.88333302736282304</v>
       </c>
       <c r="J6">
-        <v>0.36622801423072798</v>
+        <v>0.88201802968978804</v>
       </c>
       <c r="K6">
-        <v>0.23201799392700101</v>
+        <v>0.721490979194641</v>
       </c>
       <c r="L6">
-        <v>6.8971000611782005E-2</v>
+        <v>0.88333302736282304</v>
       </c>
       <c r="M6">
-        <v>7.1497000753879505E-2</v>
+        <v>0.88201802968978804</v>
       </c>
       <c r="N6">
-        <v>4.31419983506202E-2</v>
+        <v>0.721490979194641</v>
       </c>
     </row>
     <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -48605,40 +48618,40 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.10445400327444</v>
+        <v>0.84298199415206898</v>
       </c>
       <c r="D7">
-        <v>0.13795499503612499</v>
+        <v>0.85877197980880704</v>
       </c>
       <c r="E7">
-        <v>0.13122999668121299</v>
+        <v>0.73070198297500599</v>
       </c>
       <c r="F7">
-        <v>3.84490005671978E-2</v>
+        <v>0.84298199415206898</v>
       </c>
       <c r="G7">
-        <v>3.7066001445055001E-2</v>
+        <v>0.85877197980880704</v>
       </c>
       <c r="H7">
-        <v>2.6079000905156101E-2</v>
+        <v>0.73070198297500599</v>
       </c>
       <c r="I7">
-        <v>0.30570200085639898</v>
+        <v>0.84298199415206898</v>
       </c>
       <c r="J7">
-        <v>0.28947401046752902</v>
+        <v>0.85877197980880704</v>
       </c>
       <c r="K7">
-        <v>0.226753994822502</v>
+        <v>0.73070198297500599</v>
       </c>
       <c r="L7">
-        <v>5.6207999587059E-2</v>
+        <v>0.84298199415206898</v>
       </c>
       <c r="M7">
-        <v>5.8432999998331001E-2</v>
+        <v>0.85877197980880704</v>
       </c>
       <c r="N7">
-        <v>4.3510999530553797E-2</v>
+        <v>0.73070198297500599</v>
       </c>
     </row>
     <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -48649,40 +48662,40 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.116350002586841</v>
+        <v>0.81842100620269698</v>
       </c>
       <c r="D8">
-        <v>0.13185299932956601</v>
+        <v>0.84166699647903398</v>
       </c>
       <c r="E8">
-        <v>0.13398499786853699</v>
+        <v>0.72017502784729004</v>
       </c>
       <c r="F8">
-        <v>3.25669981539249E-2</v>
+        <v>0.81842100620269698</v>
       </c>
       <c r="G8">
-        <v>3.3002000302076298E-2</v>
+        <v>0.84166699647903398</v>
       </c>
       <c r="H8">
-        <v>2.3351000621914801E-2</v>
+        <v>0.72017502784729004</v>
       </c>
       <c r="I8">
-        <v>0.26886001229286099</v>
+        <v>0.81842100620269698</v>
       </c>
       <c r="J8">
-        <v>0.26666700839996299</v>
+        <v>0.84166699647903398</v>
       </c>
       <c r="K8">
-        <v>0.20745599269866899</v>
+        <v>0.72017502784729004</v>
       </c>
       <c r="L8">
-        <v>5.0889000296592699E-2</v>
+        <v>0.81842100620269698</v>
       </c>
       <c r="M8">
-        <v>5.27909994125366E-2</v>
+        <v>0.84166699647903398</v>
       </c>
       <c r="N8">
-        <v>3.97699996829032E-2</v>
+        <v>0.72017502784729004</v>
       </c>
     </row>
     <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -48693,40 +48706,40 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.11632700264453801</v>
+        <v>0.78114002943038896</v>
       </c>
       <c r="D9">
-        <v>0.13041800260543801</v>
+        <v>0.816667020320892</v>
       </c>
       <c r="E9">
-        <v>0.12883499264717099</v>
+        <v>0.70833301544189398</v>
       </c>
       <c r="F9">
-        <v>2.6902999728917999E-2</v>
+        <v>0.78114002943038896</v>
       </c>
       <c r="G9">
-        <v>3.1018000096082601E-2</v>
+        <v>0.816667020320892</v>
       </c>
       <c r="H9">
-        <v>2.0371999591588901E-2</v>
+        <v>0.70833301544189398</v>
       </c>
       <c r="I9">
-        <v>0.23333300650119701</v>
+        <v>0.78114002943038896</v>
       </c>
       <c r="J9">
-        <v>0.25438600778579701</v>
+        <v>0.816667020320892</v>
       </c>
       <c r="K9">
-        <v>0.18640400469303101</v>
+        <v>0.70833301544189398</v>
       </c>
       <c r="L9">
-        <v>4.3699998408555901E-2</v>
+        <v>0.78114002943038896</v>
       </c>
       <c r="M9">
-        <v>5.0115998834371497E-2</v>
+        <v>0.816667020320892</v>
       </c>
       <c r="N9">
-        <v>3.5179998725652598E-2</v>
+        <v>0.70833301544189398</v>
       </c>
     </row>
     <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -48737,40 +48750,40 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.12039999663829801</v>
+        <v>0.74342101812362604</v>
       </c>
       <c r="D10">
-        <v>0.13104900717735199</v>
+        <v>0.78991198539733798</v>
       </c>
       <c r="E10">
-        <v>0.130221992731094</v>
+        <v>0.683332979679107</v>
       </c>
       <c r="F10">
-        <v>2.36130002886056E-2</v>
+        <v>0.74342101812362604</v>
       </c>
       <c r="G10">
-        <v>2.7248999103903701E-2</v>
+        <v>0.78991198539733798</v>
       </c>
       <c r="H10">
-        <v>1.82460006326437E-2</v>
+        <v>0.683332979679107</v>
       </c>
       <c r="I10">
-        <v>0.20877200365066501</v>
+        <v>0.74342101812362604</v>
       </c>
       <c r="J10">
-        <v>0.23026299476623499</v>
+        <v>0.78991198539733798</v>
       </c>
       <c r="K10">
-        <v>0.167981997132301</v>
+        <v>0.683332979679107</v>
       </c>
       <c r="L10">
-        <v>3.9482999593019402E-2</v>
+        <v>0.74342101812362604</v>
       </c>
       <c r="M10">
-        <v>4.5116998255252803E-2</v>
+        <v>0.78991198539733798</v>
       </c>
       <c r="N10">
-        <v>3.2007001340389203E-2</v>
+        <v>0.683332979679107</v>
       </c>
     </row>
     <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -48781,40 +48794,40 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.124164000153541</v>
+        <v>0.72193002700805597</v>
       </c>
       <c r="D11">
-        <v>0.132156997919082</v>
+        <v>0.77763199806213301</v>
       </c>
       <c r="E11">
-        <v>0.130731001496315</v>
+        <v>0.66184198856353704</v>
       </c>
       <c r="F11">
-        <v>2.2661000490188599E-2</v>
+        <v>0.72193002700805597</v>
       </c>
       <c r="G11">
-        <v>2.49620005488395E-2</v>
+        <v>0.77763199806213301</v>
       </c>
       <c r="H11">
-        <v>1.7602000385522801E-2</v>
+        <v>0.66184198856353704</v>
       </c>
       <c r="I11">
-        <v>0.20306999981403301</v>
+        <v>0.72193002700805597</v>
       </c>
       <c r="J11">
-        <v>0.21666699647903401</v>
+        <v>0.77763199806213301</v>
       </c>
       <c r="K11">
-        <v>0.16359600424766499</v>
+        <v>0.66184198856353704</v>
       </c>
       <c r="L11">
-        <v>3.8327999413013403E-2</v>
+        <v>0.72193002700805597</v>
       </c>
       <c r="M11">
-        <v>4.1992001235485001E-2</v>
+        <v>0.77763199806213301</v>
       </c>
       <c r="N11">
-        <v>3.1027000397443699E-2</v>
+        <v>0.66184198856353704</v>
       </c>
     </row>
     <row r="12" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -48825,40 +48838,40 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.120229996740818</v>
+        <v>0.696929991245269</v>
       </c>
       <c r="D12">
-        <v>0.12989999353885601</v>
+        <v>0.75175398588180498</v>
       </c>
       <c r="E12">
-        <v>0.12905800342559801</v>
+        <v>0.65306997299194303</v>
       </c>
       <c r="F12">
-        <v>2.1158000454306599E-2</v>
+        <v>0.696929991245269</v>
       </c>
       <c r="G12">
-        <v>2.2143000736832601E-2</v>
+        <v>0.75175398588180498</v>
       </c>
       <c r="H12">
-        <v>1.78340002894401E-2</v>
+        <v>0.65306997299194303</v>
       </c>
       <c r="I12">
-        <v>0.193421006202697</v>
+        <v>0.696929991245269</v>
       </c>
       <c r="J12">
-        <v>0.19736799597740101</v>
+        <v>0.75175398588180498</v>
       </c>
       <c r="K12">
-        <v>0.166666999459266</v>
+        <v>0.65306997299194303</v>
       </c>
       <c r="L12">
-        <v>3.59839983284473E-2</v>
+        <v>0.696929991245269</v>
       </c>
       <c r="M12">
-        <v>3.7836000323295503E-2</v>
+        <v>0.75175398588180498</v>
       </c>
       <c r="N12">
-        <v>3.1337998807430198E-2</v>
+        <v>0.65306997299194303</v>
       </c>
     </row>
     <row r="13" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -48944,55 +48957,55 @@
     <row r="16" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2">
-        <f>AVERAGE(C3:C12)</f>
-        <v>0.10586010068654976</v>
+        <f t="shared" ref="C16:N16" si="0">AVERAGE(C3:C12)</f>
+        <v>0.82171041369438114</v>
       </c>
       <c r="D16" s="2">
-        <f>AVERAGE(D3:D12)</f>
-        <v>0.12181689999997573</v>
+        <f t="shared" si="0"/>
+        <v>0.84245619773864688</v>
       </c>
       <c r="E16" s="2">
-        <f>AVERAGE(E3:E12)</f>
-        <v>0.11915089860558485</v>
+        <f t="shared" si="0"/>
+        <v>0.73513139486312817</v>
       </c>
       <c r="F16" s="2">
-        <f>AVERAGE(F3:F12)</f>
-        <v>4.2844700440764397E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.82171041369438114</v>
       </c>
       <c r="G16" s="2">
-        <f>AVERAGE(G3:G12)</f>
-        <v>4.3529700487852055E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.84245619773864688</v>
       </c>
       <c r="H16" s="2">
-        <f>AVERAGE(H3:H12)</f>
-        <v>3.155520036816592E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.73513139486312817</v>
       </c>
       <c r="I16" s="2">
-        <f>AVERAGE(I3:I12)</f>
-        <v>0.31337720155715887</v>
+        <f t="shared" si="0"/>
+        <v>0.82171041369438114</v>
       </c>
       <c r="J16" s="2">
-        <f>AVERAGE(J3:J12)</f>
-        <v>0.31697370111942258</v>
+        <f t="shared" si="0"/>
+        <v>0.84245619773864688</v>
       </c>
       <c r="K16" s="2">
-        <f>AVERAGE(K3:K12)</f>
-        <v>0.24780699908733322</v>
+        <f t="shared" si="0"/>
+        <v>0.73513139486312817</v>
       </c>
       <c r="L16" s="2">
-        <f>AVERAGE(L3:L12)</f>
-        <v>5.4930499568581537E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.82171041369438114</v>
       </c>
       <c r="M16" s="2">
-        <f>AVERAGE(M3:M12)</f>
-        <v>5.863979980349536E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.84245619773864688</v>
       </c>
       <c r="N16" s="2">
-        <f>AVERAGE(N3:N12)</f>
-        <v>4.3854999542236275E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.73513139486312817</v>
       </c>
     </row>
     <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -49251,220 +49264,1970 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>201</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0.79912300000000003</v>
-      </c>
-      <c r="D2">
-        <v>0.84956100000000001</v>
-      </c>
-      <c r="E2">
-        <v>0.79912300000000003</v>
+      <c r="C3">
+        <v>0.80657899379730202</v>
+      </c>
+      <c r="D3">
+        <v>0.80175399780273404</v>
+      </c>
+      <c r="E3">
+        <v>0.80657899379730202</v>
+      </c>
+      <c r="F3">
+        <v>0.67585402727126997</v>
+      </c>
+      <c r="G3">
+        <v>0.66910701990127497</v>
+      </c>
+      <c r="H3">
+        <v>0.67585402727126997</v>
+      </c>
+      <c r="I3">
+        <v>0.80657899379730202</v>
+      </c>
+      <c r="J3">
+        <v>0.80175399780273404</v>
+      </c>
+      <c r="K3">
+        <v>0.80657899379730202</v>
+      </c>
+      <c r="L3">
+        <v>0.73545300960540705</v>
+      </c>
+      <c r="M3">
+        <v>0.72944897413253695</v>
+      </c>
+      <c r="N3">
+        <v>0.73545300960540705</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>202</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>0.85319100000000003</v>
-      </c>
-      <c r="D3">
-        <v>0.86800999999999995</v>
-      </c>
-      <c r="E3">
-        <v>1.0458400000000001</v>
+      <c r="C4">
+        <v>0.77938598394393899</v>
+      </c>
+      <c r="D4">
+        <v>0.77412301301956099</v>
+      </c>
+      <c r="E4">
+        <v>0.70131599903106601</v>
+      </c>
+      <c r="F4">
+        <v>0.63852000236511197</v>
+      </c>
+      <c r="G4">
+        <v>0.63148498535156194</v>
+      </c>
+      <c r="H4">
+        <v>0.54001998901367099</v>
+      </c>
+      <c r="I4">
+        <v>0.77938598394393899</v>
+      </c>
+      <c r="J4">
+        <v>0.77412301301956099</v>
+      </c>
+      <c r="K4">
+        <v>0.70131599903106601</v>
+      </c>
+      <c r="L4">
+        <v>0.70195502042770297</v>
+      </c>
+      <c r="M4">
+        <v>0.69556701183319003</v>
+      </c>
+      <c r="N4">
+        <v>0.61018902063369695</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>203</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>0.87511000000000005</v>
-      </c>
-      <c r="D4">
-        <v>0.86096899999999998</v>
-      </c>
-      <c r="E4">
-        <v>1.43526</v>
+      <c r="C5">
+        <v>0.77894699573516801</v>
+      </c>
+      <c r="D5">
+        <v>0.76447397470474199</v>
+      </c>
+      <c r="E5">
+        <v>0.58552598953247004</v>
+      </c>
+      <c r="F5">
+        <v>0.63793098926544101</v>
+      </c>
+      <c r="G5">
+        <v>0.61874300241470304</v>
+      </c>
+      <c r="H5">
+        <v>0.413953006267547</v>
+      </c>
+      <c r="I5">
+        <v>0.77894699573516801</v>
+      </c>
+      <c r="J5">
+        <v>0.76447397470474199</v>
+      </c>
+      <c r="K5">
+        <v>0.58552598953247004</v>
+      </c>
+      <c r="L5">
+        <v>0.70142197608947698</v>
+      </c>
+      <c r="M5">
+        <v>0.68393200635910001</v>
+      </c>
+      <c r="N5">
+        <v>0.48501399159431402</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>204</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>0.90943200000000002</v>
-      </c>
-      <c r="D5">
-        <v>0.88312000000000002</v>
-      </c>
-      <c r="E5">
-        <v>1.49665</v>
+      <c r="C6">
+        <v>0.75921100378036499</v>
+      </c>
+      <c r="D6">
+        <v>0.75921100378036499</v>
+      </c>
+      <c r="E6">
+        <v>0.58245599269866899</v>
+      </c>
+      <c r="F6">
+        <v>0.61187702417373602</v>
+      </c>
+      <c r="G6">
+        <v>0.61187702417373602</v>
+      </c>
+      <c r="H6">
+        <v>0.41089099645614602</v>
+      </c>
+      <c r="I6">
+        <v>0.75921100378036499</v>
+      </c>
+      <c r="J6">
+        <v>0.75921100378036499</v>
+      </c>
+      <c r="K6">
+        <v>0.58245599269866899</v>
+      </c>
+      <c r="L6">
+        <v>0.67762798070907504</v>
+      </c>
+      <c r="M6">
+        <v>0.67762798070907504</v>
+      </c>
+      <c r="N6">
+        <v>0.48185798525810197</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>205</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>1.03169</v>
-      </c>
-      <c r="D6">
-        <v>0.94782599999999995</v>
-      </c>
-      <c r="E6">
-        <v>1.4405699999999999</v>
+      <c r="C7">
+        <v>0.711842000484466</v>
+      </c>
+      <c r="D7">
+        <v>0.73070198297500599</v>
+      </c>
+      <c r="E7">
+        <v>0.60131597518920898</v>
+      </c>
+      <c r="F7">
+        <v>0.55260497331619196</v>
+      </c>
+      <c r="G7">
+        <v>0.57567399740219105</v>
+      </c>
+      <c r="H7">
+        <v>0.429915010929107</v>
+      </c>
+      <c r="I7">
+        <v>0.711842000484466</v>
+      </c>
+      <c r="J7">
+        <v>0.73070198297500599</v>
+      </c>
+      <c r="K7">
+        <v>0.60131597518920898</v>
+      </c>
+      <c r="L7">
+        <v>0.62219697237014704</v>
+      </c>
+      <c r="M7">
+        <v>0.64398902654647805</v>
+      </c>
+      <c r="N7">
+        <v>0.50137102603912298</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>206</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>1.09806</v>
-      </c>
-      <c r="D7">
-        <v>0.99423600000000001</v>
-      </c>
-      <c r="E7">
-        <v>1.43631</v>
+      <c r="C8">
+        <v>0.67587697505950906</v>
+      </c>
+      <c r="D8">
+        <v>0.70570200681686401</v>
+      </c>
+      <c r="E8">
+        <v>0.58728098869323697</v>
+      </c>
+      <c r="F8">
+        <v>0.51043397188186601</v>
+      </c>
+      <c r="G8">
+        <v>0.54523897171020497</v>
+      </c>
+      <c r="H8">
+        <v>0.415708988904953</v>
+      </c>
+      <c r="I8">
+        <v>0.67587697505950906</v>
+      </c>
+      <c r="J8">
+        <v>0.70570200681686401</v>
+      </c>
+      <c r="K8">
+        <v>0.58728098869323697</v>
+      </c>
+      <c r="L8">
+        <v>0.58161902427673295</v>
+      </c>
+      <c r="M8">
+        <v>0.615179002285003</v>
+      </c>
+      <c r="N8">
+        <v>0.48682099580764698</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>207</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>1.2227600000000001</v>
-      </c>
-      <c r="D8">
-        <v>1.0624499999999999</v>
-      </c>
-      <c r="E8">
-        <v>1.4890699999999999</v>
+      <c r="C9">
+        <v>0.62280702590942305</v>
+      </c>
+      <c r="D9">
+        <v>0.67850899696350098</v>
+      </c>
+      <c r="E9">
+        <v>0.56973701715469305</v>
+      </c>
+      <c r="F9">
+        <v>0.452228993177413</v>
+      </c>
+      <c r="G9">
+        <v>0.51344197988510099</v>
+      </c>
+      <c r="H9">
+        <v>0.39834401011466902</v>
+      </c>
+      <c r="I9">
+        <v>0.62280702590942305</v>
+      </c>
+      <c r="J9">
+        <v>0.67850899696350098</v>
+      </c>
+      <c r="K9">
+        <v>0.56973701715469305</v>
+      </c>
+      <c r="L9">
+        <v>0.52398502826690596</v>
+      </c>
+      <c r="M9">
+        <v>0.58454602956771795</v>
+      </c>
+      <c r="N9">
+        <v>0.468867987394332</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>208</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>1.3149299999999999</v>
-      </c>
-      <c r="D9">
-        <v>1.11866</v>
-      </c>
-      <c r="E9">
-        <v>1.5693600000000001</v>
+      <c r="C10">
+        <v>0.58947402238845803</v>
+      </c>
+      <c r="D10">
+        <v>0.65570199489593495</v>
+      </c>
+      <c r="E10">
+        <v>0.52719300985336304</v>
+      </c>
+      <c r="F10">
+        <v>0.41791000962257302</v>
+      </c>
+      <c r="G10">
+        <v>0.48776501417160001</v>
+      </c>
+      <c r="H10">
+        <v>0.35795098543167098</v>
+      </c>
+      <c r="I10">
+        <v>0.58947402238845803</v>
+      </c>
+      <c r="J10">
+        <v>0.65570199489593495</v>
+      </c>
+      <c r="K10">
+        <v>0.52719300985336304</v>
+      </c>
+      <c r="L10">
+        <v>0.489082992076873</v>
+      </c>
+      <c r="M10">
+        <v>0.559400975704193</v>
+      </c>
+      <c r="N10">
+        <v>0.42639198899269098</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>209</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>1.4125399999999999</v>
-      </c>
-      <c r="D10">
-        <v>1.16394</v>
-      </c>
-      <c r="E10">
-        <v>1.6312</v>
+      <c r="C11">
+        <v>0.56973701715469305</v>
+      </c>
+      <c r="D11">
+        <v>0.63377201557159402</v>
+      </c>
+      <c r="E11">
+        <v>0.51929801702499301</v>
+      </c>
+      <c r="F11">
+        <v>0.39834401011466902</v>
+      </c>
+      <c r="G11">
+        <v>0.46388399600982599</v>
+      </c>
+      <c r="H11">
+        <v>0.35071098804473799</v>
+      </c>
+      <c r="I11">
+        <v>0.56973701715469305</v>
+      </c>
+      <c r="J11">
+        <v>0.63377201557159402</v>
+      </c>
+      <c r="K11">
+        <v>0.51929801702499301</v>
+      </c>
+      <c r="L11">
+        <v>0.468867987394332</v>
+      </c>
+      <c r="M11">
+        <v>0.53568100929260198</v>
+      </c>
+      <c r="N11">
+        <v>0.41866999864578203</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>210</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>1.4595100000000001</v>
-      </c>
-      <c r="D11">
-        <v>1.22692</v>
-      </c>
-      <c r="E11">
-        <v>1.6026100000000001</v>
+      <c r="C12">
+        <v>0.55394697189330999</v>
+      </c>
+      <c r="D12">
+        <v>0.61228102445602395</v>
+      </c>
+      <c r="E12">
+        <v>0.51403498649597101</v>
+      </c>
+      <c r="F12">
+        <v>0.383076012134552</v>
+      </c>
+      <c r="G12">
+        <v>0.44121399521827698</v>
+      </c>
+      <c r="H12">
+        <v>0.34592700004577598</v>
+      </c>
+      <c r="I12">
+        <v>0.55394697189330999</v>
+      </c>
+      <c r="J12">
+        <v>0.61228102445602395</v>
+      </c>
+      <c r="K12">
+        <v>0.51403498649597101</v>
+      </c>
+      <c r="L12">
+        <v>0.45293200016021701</v>
+      </c>
+      <c r="M12">
+        <v>0.51285797357559204</v>
+      </c>
+      <c r="N12">
+        <v>0.41354998946189803</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="C15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" ref="C16:N16" si="0">AVERAGE(C3:C12)</f>
+        <v>0.68478069901466321</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.71162300109863263</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.59947369694709729</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.52787800133228235</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.55584299862384756</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.43392750024795479</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.68478069901466321</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.71162300109863263</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.59947369694709729</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.59551419913768711</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.62382299900054872</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.5028185993432992</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>201</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.64254397153854304</v>
+      </c>
+      <c r="D3">
+        <v>0.63771897554397505</v>
+      </c>
+      <c r="E3">
+        <v>0.64254397153854304</v>
+      </c>
+      <c r="F3">
+        <v>0.26444000005722001</v>
+      </c>
+      <c r="G3">
+        <v>0.260387003421783</v>
+      </c>
+      <c r="H3">
+        <v>0.26444000005722001</v>
+      </c>
+      <c r="I3">
+        <v>0.64254397153854304</v>
+      </c>
+      <c r="J3">
+        <v>0.63771897554397505</v>
+      </c>
+      <c r="K3">
+        <v>0.64254397153854304</v>
+      </c>
+      <c r="L3">
+        <v>0.37468001246452298</v>
+      </c>
+      <c r="M3">
+        <v>0.36978599429130499</v>
+      </c>
+      <c r="N3">
+        <v>0.37468001246452298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>202</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.59868401288986195</v>
+      </c>
+      <c r="D4">
+        <v>0.581579029560089</v>
+      </c>
+      <c r="E4">
+        <v>0.48728099465370101</v>
+      </c>
+      <c r="F4">
+        <v>0.229798004031181</v>
+      </c>
+      <c r="G4">
+        <v>0.21751999855041501</v>
+      </c>
+      <c r="H4">
+        <v>0.159718006849288</v>
+      </c>
+      <c r="I4">
+        <v>0.59868401288986195</v>
+      </c>
+      <c r="J4">
+        <v>0.581579029560089</v>
+      </c>
+      <c r="K4">
+        <v>0.48728099465370101</v>
+      </c>
+      <c r="L4">
+        <v>0.33211699128150901</v>
+      </c>
+      <c r="M4">
+        <v>0.31661900877952498</v>
+      </c>
+      <c r="N4">
+        <v>0.24058000743389099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>203</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0.56228101253509499</v>
+      </c>
+      <c r="D5">
+        <v>0.55657899379730202</v>
+      </c>
+      <c r="E5">
+        <v>0.36052599549293501</v>
+      </c>
+      <c r="F5">
+        <v>0.20440100133419001</v>
+      </c>
+      <c r="G5">
+        <v>0.20066399872303001</v>
+      </c>
+      <c r="H5">
+        <v>0.10133100301027199</v>
+      </c>
+      <c r="I5">
+        <v>0.56228101253509499</v>
+      </c>
+      <c r="J5">
+        <v>0.55657899379730202</v>
+      </c>
+      <c r="K5">
+        <v>0.36052599549293501</v>
+      </c>
+      <c r="L5">
+        <v>0.299813002347946</v>
+      </c>
+      <c r="M5">
+        <v>0.29497900605201699</v>
+      </c>
+      <c r="N5">
+        <v>0.158198997378349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>204</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.53114002943038896</v>
+      </c>
+      <c r="D6">
+        <v>0.51973700523376398</v>
+      </c>
+      <c r="E6">
+        <v>0.33947399258613498</v>
+      </c>
+      <c r="F6">
+        <v>0.184716001152992</v>
+      </c>
+      <c r="G6">
+        <v>0.177928000688552</v>
+      </c>
+      <c r="H6">
+        <v>9.3208000063896096E-2</v>
+      </c>
+      <c r="I6">
+        <v>0.53114002943038896</v>
+      </c>
+      <c r="J6">
+        <v>0.51973700523376398</v>
+      </c>
+      <c r="K6">
+        <v>0.33947399258613498</v>
+      </c>
+      <c r="L6">
+        <v>0.274105995893478</v>
+      </c>
+      <c r="M6">
+        <v>0.26510098576545699</v>
+      </c>
+      <c r="N6">
+        <v>0.146258994936943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>205</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0.45789501070976202</v>
+      </c>
+      <c r="D7">
+        <v>0.42719298601150502</v>
+      </c>
+      <c r="E7">
+        <v>0.33421099185943598</v>
+      </c>
+      <c r="F7">
+        <v>0.144518002867698</v>
+      </c>
+      <c r="G7">
+        <v>0.12979699671268399</v>
+      </c>
+      <c r="H7">
+        <v>9.1236002743244102E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.45789501070976202</v>
+      </c>
+      <c r="J7">
+        <v>0.42719298601150502</v>
+      </c>
+      <c r="K7">
+        <v>0.33421099185943598</v>
+      </c>
+      <c r="L7">
+        <v>0.21969699859619099</v>
+      </c>
+      <c r="M7">
+        <v>0.19910100102424599</v>
+      </c>
+      <c r="N7">
+        <v>0.14334100484848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>206</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.39429798722267101</v>
+      </c>
+      <c r="D8">
+        <v>0.398245990276336</v>
+      </c>
+      <c r="E8">
+        <v>0.31359601020812899</v>
+      </c>
+      <c r="F8">
+        <v>0.115197002887725</v>
+      </c>
+      <c r="G8">
+        <v>0.116889998316764</v>
+      </c>
+      <c r="H8">
+        <v>8.3723999559879303E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.39429798722267101</v>
+      </c>
+      <c r="J8">
+        <v>0.398245990276336</v>
+      </c>
+      <c r="K8">
+        <v>0.31359601020812899</v>
+      </c>
+      <c r="L8">
+        <v>0.17830200493335699</v>
+      </c>
+      <c r="M8">
+        <v>0.180731996893882</v>
+      </c>
+      <c r="N8">
+        <v>0.13216300308704301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>207</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.35964900255203203</v>
+      </c>
+      <c r="D9">
+        <v>0.36666700243949801</v>
+      </c>
+      <c r="E9">
+        <v>0.28201800584793002</v>
+      </c>
+      <c r="F9">
+        <v>0.100984998047351</v>
+      </c>
+      <c r="G9">
+        <v>0.10377400368452</v>
+      </c>
+      <c r="H9">
+        <v>7.2835996747016907E-2</v>
+      </c>
+      <c r="I9">
+        <v>0.35964900255203203</v>
+      </c>
+      <c r="J9">
+        <v>0.36666700243949801</v>
+      </c>
+      <c r="K9">
+        <v>0.28201800584793002</v>
+      </c>
+      <c r="L9">
+        <v>0.157692000269889</v>
+      </c>
+      <c r="M9">
+        <v>0.16176499426364899</v>
+      </c>
+      <c r="N9">
+        <v>0.115772001445293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>208</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.30394700169563199</v>
+      </c>
+      <c r="D10">
+        <v>0.33947399258613498</v>
+      </c>
+      <c r="E10">
+        <v>0.25043898820876997</v>
+      </c>
+      <c r="F10">
+        <v>8.0320000648498494E-2</v>
+      </c>
+      <c r="G10">
+        <v>9.3208000063896096E-2</v>
+      </c>
+      <c r="H10">
+        <v>6.2637001276016194E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.30394700169563199</v>
+      </c>
+      <c r="J10">
+        <v>0.33947399258613498</v>
+      </c>
+      <c r="K10">
+        <v>0.25043898820876997</v>
+      </c>
+      <c r="L10">
+        <v>0.12706300616264299</v>
+      </c>
+      <c r="M10">
+        <v>0.146258994936943</v>
+      </c>
+      <c r="N10">
+        <v>0.100211001932621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>209</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.29385998845100397</v>
+      </c>
+      <c r="D11">
+        <v>0.31973698735237099</v>
+      </c>
+      <c r="E11">
+        <v>0.24649100005626601</v>
+      </c>
+      <c r="F11">
+        <v>7.6834999024867998E-2</v>
+      </c>
+      <c r="G11">
+        <v>8.5925996303558294E-2</v>
+      </c>
+      <c r="H11">
+        <v>6.1406999826431198E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.29385998845100397</v>
+      </c>
+      <c r="J11">
+        <v>0.31973698735237099</v>
+      </c>
+      <c r="K11">
+        <v>0.24649100005626601</v>
+      </c>
+      <c r="L11">
+        <v>0.12181799858808499</v>
+      </c>
+      <c r="M11">
+        <v>0.13545200228691101</v>
+      </c>
+      <c r="N11">
+        <v>9.8320998251438099E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>210</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0.27894699573516801</v>
+      </c>
+      <c r="D12">
+        <v>0.28771901130676197</v>
+      </c>
+      <c r="E12">
+        <v>0.242543995380401</v>
+      </c>
+      <c r="F12">
+        <v>7.1815997362136799E-2</v>
+      </c>
+      <c r="G12">
+        <v>7.4749000370502403E-2</v>
+      </c>
+      <c r="H12">
+        <v>6.01870007812976E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.27894699573516801</v>
+      </c>
+      <c r="J12">
+        <v>0.28771901130676197</v>
+      </c>
+      <c r="K12">
+        <v>0.242543995380401</v>
+      </c>
+      <c r="L12">
+        <v>0.11422400176525099</v>
+      </c>
+      <c r="M12">
+        <v>0.118669003248214</v>
+      </c>
+      <c r="N12">
+        <v>9.6441999077796894E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="C15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" ref="C16:N16" si="0">AVERAGE(C3:C12)</f>
+        <v>0.44232450127601569</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.44346499741077372</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.3499123945832246</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14730260074138604</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14608429968357051</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10507240109145614</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.44232450127601569</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.44346499741077372</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.3499123945832246</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.21995120123028719</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.21884629875421488</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.16059680208563781</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>201</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.51228100061416604</v>
+      </c>
+      <c r="D3">
+        <v>0.50745600461959794</v>
+      </c>
+      <c r="E3">
+        <v>0.51228100061416604</v>
+      </c>
+      <c r="F3">
+        <v>9.5051996409892994E-2</v>
+      </c>
+      <c r="G3">
+        <v>9.3404002487659399E-2</v>
+      </c>
+      <c r="H3">
+        <v>9.5051996409892994E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.51228100061416604</v>
+      </c>
+      <c r="J3">
+        <v>0.50745600461959794</v>
+      </c>
+      <c r="K3">
+        <v>0.51228100061416604</v>
+      </c>
+      <c r="L3">
+        <v>0.16035099327564201</v>
+      </c>
+      <c r="M3">
+        <v>0.157768994569778</v>
+      </c>
+      <c r="N3">
+        <v>0.16035099327564201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>202</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.45964899659156799</v>
+      </c>
+      <c r="D4">
+        <v>0.44517499208450301</v>
+      </c>
+      <c r="E4">
+        <v>0.36403501033782898</v>
+      </c>
+      <c r="F4">
+        <v>7.8395999968051897E-2</v>
+      </c>
+      <c r="G4">
+        <v>7.4276998639106695E-2</v>
+      </c>
+      <c r="H4">
+        <v>5.4141998291015597E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.45964899659156799</v>
+      </c>
+      <c r="J4">
+        <v>0.44517499208450301</v>
+      </c>
+      <c r="K4">
+        <v>0.36403501033782898</v>
+      </c>
+      <c r="L4">
+        <v>0.13394699990749301</v>
+      </c>
+      <c r="M4">
+        <v>0.127313002943992</v>
+      </c>
+      <c r="N4">
+        <v>9.4264999032020499E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>203</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0.38859599828719998</v>
+      </c>
+      <c r="D5">
+        <v>0.396052986383438</v>
+      </c>
+      <c r="E5">
+        <v>0.25087699294090199</v>
+      </c>
+      <c r="F5">
+        <v>5.9760000556707299E-2</v>
+      </c>
+      <c r="G5">
+        <v>6.1542000621557201E-2</v>
+      </c>
+      <c r="H5">
+        <v>3.2404001802205998E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.38859599828719998</v>
+      </c>
+      <c r="J5">
+        <v>0.396052986383438</v>
+      </c>
+      <c r="K5">
+        <v>0.25087699294090199</v>
+      </c>
+      <c r="L5">
+        <v>0.10358899831771801</v>
+      </c>
+      <c r="M5">
+        <v>0.106530003249645</v>
+      </c>
+      <c r="N5">
+        <v>5.7395000010728801E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>204</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.360087990760803</v>
+      </c>
+      <c r="D6">
+        <v>0.36622801423072798</v>
+      </c>
+      <c r="E6">
+        <v>0.23201799392700101</v>
+      </c>
+      <c r="F6">
+        <v>5.3273998200893402E-2</v>
+      </c>
+      <c r="G6">
+        <v>5.4629001766443197E-2</v>
+      </c>
+      <c r="H6">
+        <v>2.93249990791082E-2</v>
+      </c>
+      <c r="I6">
+        <v>0.360087990760803</v>
+      </c>
+      <c r="J6">
+        <v>0.36622801423072798</v>
+      </c>
+      <c r="K6">
+        <v>0.23201799392700101</v>
+      </c>
+      <c r="L6">
+        <v>9.2816002666950198E-2</v>
+      </c>
+      <c r="M6">
+        <v>9.5074996352195698E-2</v>
+      </c>
+      <c r="N6">
+        <v>5.2069000899791697E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>205</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0.30570200085639898</v>
+      </c>
+      <c r="D7">
+        <v>0.28947401046752902</v>
+      </c>
+      <c r="E7">
+        <v>0.226753994822502</v>
+      </c>
+      <c r="F7">
+        <v>4.2172998189926099E-2</v>
+      </c>
+      <c r="G7">
+        <v>3.9145998656749698E-2</v>
+      </c>
+      <c r="H7">
+        <v>2.8489999473094899E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.30570200085639898</v>
+      </c>
+      <c r="J7">
+        <v>0.28947401046752902</v>
+      </c>
+      <c r="K7">
+        <v>0.226753994822502</v>
+      </c>
+      <c r="L7">
+        <v>7.4120998382568304E-2</v>
+      </c>
+      <c r="M7">
+        <v>6.8966001272201496E-2</v>
+      </c>
+      <c r="N7">
+        <v>5.06189987063407E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>206</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.26886001229286099</v>
+      </c>
+      <c r="D8">
+        <v>0.26666700839996299</v>
+      </c>
+      <c r="E8">
+        <v>0.20745599269866899</v>
+      </c>
+      <c r="F8">
+        <v>3.5468000918626702E-2</v>
+      </c>
+      <c r="G8">
+        <v>3.5087998956441803E-2</v>
+      </c>
+      <c r="H8">
+        <v>2.5507999584078699E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.26886001229286099</v>
+      </c>
+      <c r="J8">
+        <v>0.26666700839996299</v>
+      </c>
+      <c r="K8">
+        <v>0.20745599269866899</v>
+      </c>
+      <c r="L8">
+        <v>6.2669001519679995E-2</v>
+      </c>
+      <c r="M8">
+        <v>6.2015999108552898E-2</v>
+      </c>
+      <c r="N8">
+        <v>4.5430999249219797E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>207</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.23333300650119701</v>
+      </c>
+      <c r="D9">
+        <v>0.25438600778579701</v>
+      </c>
+      <c r="E9">
+        <v>0.18640400469303101</v>
+      </c>
+      <c r="F9">
+        <v>2.95359995216131E-2</v>
+      </c>
+      <c r="G9">
+        <v>3.2992001622915199E-2</v>
+      </c>
+      <c r="H9">
+        <v>2.23980005830526E-2</v>
+      </c>
+      <c r="I9">
+        <v>0.23333300650119701</v>
+      </c>
+      <c r="J9">
+        <v>0.25438600778579701</v>
+      </c>
+      <c r="K9">
+        <v>0.18640400469303101</v>
+      </c>
+      <c r="L9">
+        <v>5.2434001117944697E-2</v>
+      </c>
+      <c r="M9">
+        <v>5.8409001678228302E-2</v>
+      </c>
+      <c r="N9">
+        <v>3.9990998804569203E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>208</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.20877200365066501</v>
+      </c>
+      <c r="D10">
+        <v>0.23026299476623499</v>
+      </c>
+      <c r="E10">
+        <v>0.167981997132301</v>
+      </c>
+      <c r="F10">
+        <v>2.5707000866532301E-2</v>
+      </c>
+      <c r="G10">
+        <v>2.9046000912785499E-2</v>
+      </c>
+      <c r="H10">
+        <v>1.9789999350905401E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.20877200365066501</v>
+      </c>
+      <c r="J10">
+        <v>0.23026299476623499</v>
+      </c>
+      <c r="K10">
+        <v>0.167981997132301</v>
+      </c>
+      <c r="L10">
+        <v>4.5777998864650699E-2</v>
+      </c>
+      <c r="M10">
+        <v>5.15840016305446E-2</v>
+      </c>
+      <c r="N10">
+        <v>3.5408999770879697E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>209</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.20306999981403301</v>
+      </c>
+      <c r="D11">
+        <v>0.21666699647903401</v>
+      </c>
+      <c r="E11">
+        <v>0.16359600424766499</v>
+      </c>
+      <c r="F11">
+        <v>2.4847999215125999E-2</v>
+      </c>
+      <c r="G11">
+        <v>2.6915000751614501E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.9184000790119098E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.20306999981403301</v>
+      </c>
+      <c r="J11">
+        <v>0.21666699647903401</v>
+      </c>
+      <c r="K11">
+        <v>0.16359600424766499</v>
+      </c>
+      <c r="L11">
+        <v>4.42790016531944E-2</v>
+      </c>
+      <c r="M11">
+        <v>4.7882001847028698E-2</v>
+      </c>
+      <c r="N11">
+        <v>3.4341000020503998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>210</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0.193421006202697</v>
+      </c>
+      <c r="D12">
+        <v>0.19736799597740101</v>
+      </c>
+      <c r="E12">
+        <v>0.166666999459266</v>
+      </c>
+      <c r="F12">
+        <v>2.34190002083778E-2</v>
+      </c>
+      <c r="G12">
+        <v>2.4000000208616201E-2</v>
+      </c>
+      <c r="H12">
+        <v>1.9608000293373999E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.193421006202697</v>
+      </c>
+      <c r="J12">
+        <v>0.19736799597740101</v>
+      </c>
+      <c r="K12">
+        <v>0.166666999459266</v>
+      </c>
+      <c r="L12">
+        <v>4.1779000312089899E-2</v>
+      </c>
+      <c r="M12">
+        <v>4.2796000838279703E-2</v>
+      </c>
+      <c r="N12">
+        <v>3.5087998956441803E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="C15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" ref="C16:N16" si="0">AVERAGE(C3:C12)</f>
+        <v>0.31337720155715887</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.31697370111942258</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24780699908733322</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6763299405574763E-2</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>4.7103900462388944E-2</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4590099565684748E-2</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.31337720155715887</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.31697370111942258</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24780699908733322</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="0"/>
+        <v>8.1176299601793137E-2</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="0"/>
+        <v>8.1834000349044644E-2</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0495898872613821E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:N12"/>
+      <selection activeCell="A3" sqref="A3:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49500,7 +51263,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -49547,22 +51310,22 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.92368400096893299</v>
+        <v>0.58922302722930897</v>
       </c>
       <c r="D3">
-        <v>0.91842097043991</v>
+        <v>0.53546100854873602</v>
       </c>
       <c r="E3">
-        <v>0.92368400096893299</v>
+        <v>0.58922302722930897</v>
       </c>
       <c r="F3">
-        <v>0.92368400096893299</v>
+        <v>0.50920999050140303</v>
       </c>
       <c r="G3">
-        <v>0.91842097043991</v>
+        <v>0.50637197494506803</v>
       </c>
       <c r="H3">
-        <v>0.92368400096893299</v>
+        <v>0.50920999050140303</v>
       </c>
       <c r="I3">
         <v>0.92368400096893299</v>
@@ -49574,13 +51337,13 @@
         <v>0.92368400096893299</v>
       </c>
       <c r="L3">
-        <v>0.92368400096893299</v>
+        <v>0.54630202054977395</v>
       </c>
       <c r="M3">
-        <v>0.91842097043991</v>
+        <v>0.52051001787185602</v>
       </c>
       <c r="N3">
-        <v>0.92368400096893299</v>
+        <v>0.54630202054977395</v>
       </c>
     </row>
     <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -49591,22 +51354,22 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.90614002943038896</v>
+        <v>0.52060902118682795</v>
       </c>
       <c r="D4">
-        <v>0.89736801385879505</v>
+        <v>0.53415399789810103</v>
       </c>
       <c r="E4">
-        <v>0.83377200365066495</v>
+        <v>0.51431697607040405</v>
       </c>
       <c r="F4">
-        <v>0.90614002943038896</v>
+        <v>0.508076012134552</v>
       </c>
       <c r="G4">
-        <v>0.89736801385879505</v>
+        <v>0.51999902725219704</v>
       </c>
       <c r="H4">
-        <v>0.83377200365066495</v>
+        <v>0.52178502082824696</v>
       </c>
       <c r="I4">
         <v>0.90614002943038896</v>
@@ -49618,13 +51381,13 @@
         <v>0.83377200365066495</v>
       </c>
       <c r="L4">
-        <v>0.90614002943038896</v>
+        <v>0.51426601409912098</v>
       </c>
       <c r="M4">
-        <v>0.89736801385879505</v>
+        <v>0.52698099613189697</v>
       </c>
       <c r="N4">
-        <v>0.83377200365066495</v>
+        <v>0.51802402734756403</v>
       </c>
     </row>
     <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -49635,22 +51398,22 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.89912301301956099</v>
+        <v>0.52863001823425204</v>
       </c>
       <c r="D5">
-        <v>0.89035099744796697</v>
+        <v>0.523836970329284</v>
       </c>
       <c r="E5">
-        <v>0.71491199731826705</v>
+        <v>0.51618999242782504</v>
       </c>
       <c r="F5">
-        <v>0.89912301301956099</v>
+        <v>0.51539397239685003</v>
       </c>
       <c r="G5">
-        <v>0.89035099744796697</v>
+        <v>0.51621401309966997</v>
       </c>
       <c r="H5">
-        <v>0.71491199731826705</v>
+        <v>0.546505987644195</v>
       </c>
       <c r="I5">
         <v>0.89912301301956099</v>
@@ -49662,13 +51425,13 @@
         <v>0.71491199731826705</v>
       </c>
       <c r="L5">
-        <v>0.89912301301956099</v>
+        <v>0.52192801237106301</v>
       </c>
       <c r="M5">
-        <v>0.89035099744796697</v>
+        <v>0.51999801397323597</v>
       </c>
       <c r="N5">
-        <v>0.71491199731826705</v>
+        <v>0.53091597557067804</v>
       </c>
     </row>
     <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -49679,22 +51442,22 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.88333302736282304</v>
+        <v>0.51937198638916005</v>
       </c>
       <c r="D6">
-        <v>0.88201802968978804</v>
+        <v>0.51806998252868597</v>
       </c>
       <c r="E6">
-        <v>0.721490979194641</v>
+        <v>0.52145302295684803</v>
       </c>
       <c r="F6">
-        <v>0.88333302736282304</v>
+        <v>0.515205979347229</v>
       </c>
       <c r="G6">
-        <v>0.88201802968978804</v>
+        <v>0.51449602842330899</v>
       </c>
       <c r="H6">
-        <v>0.721490979194641</v>
+        <v>0.56115597486495905</v>
       </c>
       <c r="I6">
         <v>0.88333302736282304</v>
@@ -49706,13 +51469,13 @@
         <v>0.721490979194641</v>
       </c>
       <c r="L6">
-        <v>0.88333302736282304</v>
+        <v>0.51727998256683305</v>
       </c>
       <c r="M6">
-        <v>0.88201802968978804</v>
+        <v>0.516277015209198</v>
       </c>
       <c r="N6">
-        <v>0.721490979194641</v>
+        <v>0.54057598114013605</v>
       </c>
     </row>
     <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -49723,22 +51486,22 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.84298199415206898</v>
+        <v>0.49923598766326899</v>
       </c>
       <c r="D7">
-        <v>0.85877197980880704</v>
+        <v>0.53071099519729603</v>
       </c>
       <c r="E7">
-        <v>0.73070198297500599</v>
+        <v>0.53565800189971902</v>
       </c>
       <c r="F7">
-        <v>0.84298199415206898</v>
+        <v>0.498997002840042</v>
       </c>
       <c r="G7">
-        <v>0.85877197980880704</v>
+        <v>0.53804200887679998</v>
       </c>
       <c r="H7">
-        <v>0.73070198297500599</v>
+        <v>0.60220402479171697</v>
       </c>
       <c r="I7">
         <v>0.84298199415206898</v>
@@ -49750,13 +51513,13 @@
         <v>0.73070198297500599</v>
       </c>
       <c r="L7">
-        <v>0.84298199415206898</v>
+        <v>0.49911600351333602</v>
       </c>
       <c r="M7">
-        <v>0.85877197980880704</v>
+        <v>0.53435099124908403</v>
       </c>
       <c r="N7">
-        <v>0.73070198297500599</v>
+        <v>0.56698501110076904</v>
       </c>
     </row>
     <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -49767,22 +51530,22 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.81842100620269698</v>
+        <v>0.49977499246597201</v>
       </c>
       <c r="D8">
-        <v>0.84166699647903398</v>
+        <v>0.53670001029968195</v>
       </c>
       <c r="E8">
-        <v>0.72017502784729004</v>
+        <v>0.53459697961807195</v>
       </c>
       <c r="F8">
-        <v>0.81842100620269698</v>
+        <v>0.49963000416755599</v>
       </c>
       <c r="G8">
-        <v>0.84166699647903398</v>
+        <v>0.556573987007141</v>
       </c>
       <c r="H8">
-        <v>0.72017502784729004</v>
+        <v>0.60207897424697798</v>
       </c>
       <c r="I8">
         <v>0.81842100620269698</v>
@@ -49794,13 +51557,13 @@
         <v>0.72017502784729004</v>
       </c>
       <c r="L8">
-        <v>0.81842100620269698</v>
+        <v>0.49970200657844499</v>
       </c>
       <c r="M8">
-        <v>0.84166699647903398</v>
+        <v>0.546455979347229</v>
       </c>
       <c r="N8">
-        <v>0.72017502784729004</v>
+        <v>0.56633502244949296</v>
       </c>
     </row>
     <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -49811,22 +51574,22 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.78114002943038896</v>
+        <v>0.51346999406814497</v>
       </c>
       <c r="D9">
-        <v>0.816667020320892</v>
+        <v>0.52925997972488403</v>
       </c>
       <c r="E9">
-        <v>0.70833301544189398</v>
+        <v>0.53246498107910101</v>
       </c>
       <c r="F9">
-        <v>0.78114002943038896</v>
+        <v>0.52948498725891102</v>
       </c>
       <c r="G9">
-        <v>0.816667020320892</v>
+        <v>0.55419397354125899</v>
       </c>
       <c r="H9">
-        <v>0.70833301544189398</v>
+        <v>0.598469018936157</v>
       </c>
       <c r="I9">
         <v>0.78114002943038896</v>
@@ -49838,13 +51601,13 @@
         <v>0.70833301544189398</v>
       </c>
       <c r="L9">
-        <v>0.78114002943038896</v>
+        <v>0.521354019641876</v>
       </c>
       <c r="M9">
-        <v>0.816667020320892</v>
+        <v>0.5414400100708</v>
       </c>
       <c r="N9">
-        <v>0.70833301544189398</v>
+        <v>0.56354099512100198</v>
       </c>
     </row>
     <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -49855,22 +51618,22 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.74342101812362604</v>
+        <v>0.51420700550079301</v>
       </c>
       <c r="D10">
-        <v>0.78991198539733798</v>
+        <v>0.52946698665618896</v>
       </c>
       <c r="E10">
-        <v>0.683332979679107</v>
+        <v>0.53166097402572599</v>
       </c>
       <c r="F10">
-        <v>0.74342101812362604</v>
+        <v>0.53689998388290405</v>
       </c>
       <c r="G10">
-        <v>0.78991198539733798</v>
+        <v>0.56474602222442605</v>
       </c>
       <c r="H10">
-        <v>0.683332979679107</v>
+        <v>0.60163998603820801</v>
       </c>
       <c r="I10">
         <v>0.74342101812362604</v>
@@ -49882,13 +51645,13 @@
         <v>0.683332979679107</v>
       </c>
       <c r="L10">
-        <v>0.74342101812362604</v>
+        <v>0.52530801296234098</v>
       </c>
       <c r="M10">
-        <v>0.78991198539733798</v>
+        <v>0.54653799533843905</v>
       </c>
       <c r="N10">
-        <v>0.683332979679107</v>
+        <v>0.56449002027511597</v>
       </c>
     </row>
     <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -49899,22 +51662,22 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.72193002700805597</v>
+        <v>0.50817102193832397</v>
       </c>
       <c r="D11">
-        <v>0.77763199806213301</v>
+        <v>0.53170597553253096</v>
       </c>
       <c r="E11">
-        <v>0.66184198856353704</v>
+        <v>0.52872800827026301</v>
       </c>
       <c r="F11">
-        <v>0.72193002700805597</v>
+        <v>0.52253502607345503</v>
       </c>
       <c r="G11">
-        <v>0.77763199806213301</v>
+        <v>0.57477700710296598</v>
       </c>
       <c r="H11">
-        <v>0.66184198856353704</v>
+        <v>0.59560197591781605</v>
       </c>
       <c r="I11">
         <v>0.72193002700805597</v>
@@ -49926,13 +51689,13 @@
         <v>0.66184198856353704</v>
       </c>
       <c r="L11">
-        <v>0.72193002700805597</v>
+        <v>0.51525300741195601</v>
       </c>
       <c r="M11">
-        <v>0.77763199806213301</v>
+        <v>0.55240297317504805</v>
       </c>
       <c r="N11">
-        <v>0.66184198856353704</v>
+        <v>0.56017601490020696</v>
       </c>
     </row>
     <row r="12" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -49943,22 +51706,22 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.696929991245269</v>
+        <v>0.50865298509597701</v>
       </c>
       <c r="D12">
-        <v>0.75175398588180498</v>
+        <v>0.52856600284576405</v>
       </c>
       <c r="E12">
-        <v>0.65306997299194303</v>
+        <v>0.51977497339248602</v>
       </c>
       <c r="F12">
-        <v>0.696929991245269</v>
+        <v>0.52570599317550604</v>
       </c>
       <c r="G12">
-        <v>0.75175398588180498</v>
+        <v>0.57469999790191595</v>
       </c>
       <c r="H12">
-        <v>0.65306997299194303</v>
+        <v>0.56589198112487704</v>
       </c>
       <c r="I12">
         <v>0.696929991245269</v>
@@ -49970,13 +51733,13 @@
         <v>0.65306997299194303</v>
       </c>
       <c r="L12">
-        <v>0.696929991245269</v>
+        <v>0.51703900098800604</v>
       </c>
       <c r="M12">
-        <v>0.75175398588180498</v>
+        <v>0.55066800117492598</v>
       </c>
       <c r="N12">
-        <v>0.65306997299194303</v>
+        <v>0.54185402393340998</v>
       </c>
     </row>
     <row r="13" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -50062,55 +51825,55 @@
     <row r="16" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2">
-        <f>AVERAGE(C3:C12)</f>
+        <f t="shared" ref="C16:N16" si="0">AVERAGE(C3:C12)</f>
+        <v>0.5201346039772029</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.52979319095611532</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.53240669369697535</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.51611389517784079</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.54201140403747528</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.57045429348945575</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
         <v>0.82171041369438114</v>
       </c>
-      <c r="D16" s="2">
-        <f>AVERAGE(D3:D12)</f>
+      <c r="J16" s="2">
+        <f t="shared" si="0"/>
         <v>0.84245619773864688</v>
       </c>
-      <c r="E16" s="2">
-        <f>AVERAGE(E3:E12)</f>
+      <c r="K16" s="2">
+        <f t="shared" si="0"/>
         <v>0.73513139486312817</v>
       </c>
-      <c r="F16" s="2">
-        <f>AVERAGE(F3:F12)</f>
-        <v>0.82171041369438114</v>
-      </c>
-      <c r="G16" s="2">
-        <f>AVERAGE(G3:G12)</f>
-        <v>0.84245619773864688</v>
-      </c>
-      <c r="H16" s="2">
-        <f>AVERAGE(H3:H12)</f>
-        <v>0.73513139486312817</v>
-      </c>
-      <c r="I16" s="2">
-        <f>AVERAGE(I3:I12)</f>
-        <v>0.82171041369438114</v>
-      </c>
-      <c r="J16" s="2">
-        <f>AVERAGE(J3:J12)</f>
-        <v>0.84245619773864688</v>
-      </c>
-      <c r="K16" s="2">
-        <f>AVERAGE(K3:K12)</f>
-        <v>0.73513139486312817</v>
-      </c>
       <c r="L16" s="2">
-        <f>AVERAGE(L3:L12)</f>
-        <v>0.82171041369438114</v>
+        <f t="shared" si="0"/>
+        <v>0.51775480806827512</v>
       </c>
       <c r="M16" s="2">
-        <f>AVERAGE(M3:M12)</f>
-        <v>0.84245619773864688</v>
+        <f t="shared" si="0"/>
+        <v>0.53556219935417126</v>
       </c>
       <c r="N16" s="2">
-        <f>AVERAGE(N3:N12)</f>
-        <v>0.73513139486312817</v>
+        <f t="shared" si="0"/>
+        <v>0.54991990923881484</v>
       </c>
     </row>
     <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -50369,1970 +52132,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:N12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
-    <col min="3" max="14" width="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>201</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0.80657899379730202</v>
-      </c>
-      <c r="D3">
-        <v>0.80175399780273404</v>
-      </c>
-      <c r="E3">
-        <v>0.80657899379730202</v>
-      </c>
-      <c r="F3">
-        <v>0.67585402727126997</v>
-      </c>
-      <c r="G3">
-        <v>0.66910701990127497</v>
-      </c>
-      <c r="H3">
-        <v>0.67585402727126997</v>
-      </c>
-      <c r="I3">
-        <v>0.80657899379730202</v>
-      </c>
-      <c r="J3">
-        <v>0.80175399780273404</v>
-      </c>
-      <c r="K3">
-        <v>0.80657899379730202</v>
-      </c>
-      <c r="L3">
-        <v>0.73545300960540705</v>
-      </c>
-      <c r="M3">
-        <v>0.72944897413253695</v>
-      </c>
-      <c r="N3">
-        <v>0.73545300960540705</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>202</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0.77938598394393899</v>
-      </c>
-      <c r="D4">
-        <v>0.77412301301956099</v>
-      </c>
-      <c r="E4">
-        <v>0.70131599903106601</v>
-      </c>
-      <c r="F4">
-        <v>0.63852000236511197</v>
-      </c>
-      <c r="G4">
-        <v>0.63148498535156194</v>
-      </c>
-      <c r="H4">
-        <v>0.54001998901367099</v>
-      </c>
-      <c r="I4">
-        <v>0.77938598394393899</v>
-      </c>
-      <c r="J4">
-        <v>0.77412301301956099</v>
-      </c>
-      <c r="K4">
-        <v>0.70131599903106601</v>
-      </c>
-      <c r="L4">
-        <v>0.70195502042770297</v>
-      </c>
-      <c r="M4">
-        <v>0.69556701183319003</v>
-      </c>
-      <c r="N4">
-        <v>0.61018902063369695</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>203</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0.77894699573516801</v>
-      </c>
-      <c r="D5">
-        <v>0.76447397470474199</v>
-      </c>
-      <c r="E5">
-        <v>0.58552598953247004</v>
-      </c>
-      <c r="F5">
-        <v>0.63793098926544101</v>
-      </c>
-      <c r="G5">
-        <v>0.61874300241470304</v>
-      </c>
-      <c r="H5">
-        <v>0.413953006267547</v>
-      </c>
-      <c r="I5">
-        <v>0.77894699573516801</v>
-      </c>
-      <c r="J5">
-        <v>0.76447397470474199</v>
-      </c>
-      <c r="K5">
-        <v>0.58552598953247004</v>
-      </c>
-      <c r="L5">
-        <v>0.70142197608947698</v>
-      </c>
-      <c r="M5">
-        <v>0.68393200635910001</v>
-      </c>
-      <c r="N5">
-        <v>0.48501399159431402</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>204</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>0.75921100378036499</v>
-      </c>
-      <c r="D6">
-        <v>0.75921100378036499</v>
-      </c>
-      <c r="E6">
-        <v>0.58245599269866899</v>
-      </c>
-      <c r="F6">
-        <v>0.61187702417373602</v>
-      </c>
-      <c r="G6">
-        <v>0.61187702417373602</v>
-      </c>
-      <c r="H6">
-        <v>0.41089099645614602</v>
-      </c>
-      <c r="I6">
-        <v>0.75921100378036499</v>
-      </c>
-      <c r="J6">
-        <v>0.75921100378036499</v>
-      </c>
-      <c r="K6">
-        <v>0.58245599269866899</v>
-      </c>
-      <c r="L6">
-        <v>0.67762798070907504</v>
-      </c>
-      <c r="M6">
-        <v>0.67762798070907504</v>
-      </c>
-      <c r="N6">
-        <v>0.48185798525810197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>205</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>0.711842000484466</v>
-      </c>
-      <c r="D7">
-        <v>0.73070198297500599</v>
-      </c>
-      <c r="E7">
-        <v>0.60131597518920898</v>
-      </c>
-      <c r="F7">
-        <v>0.55260497331619196</v>
-      </c>
-      <c r="G7">
-        <v>0.57567399740219105</v>
-      </c>
-      <c r="H7">
-        <v>0.429915010929107</v>
-      </c>
-      <c r="I7">
-        <v>0.711842000484466</v>
-      </c>
-      <c r="J7">
-        <v>0.73070198297500599</v>
-      </c>
-      <c r="K7">
-        <v>0.60131597518920898</v>
-      </c>
-      <c r="L7">
-        <v>0.62219697237014704</v>
-      </c>
-      <c r="M7">
-        <v>0.64398902654647805</v>
-      </c>
-      <c r="N7">
-        <v>0.50137102603912298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>206</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>0.67587697505950906</v>
-      </c>
-      <c r="D8">
-        <v>0.70570200681686401</v>
-      </c>
-      <c r="E8">
-        <v>0.58728098869323697</v>
-      </c>
-      <c r="F8">
-        <v>0.51043397188186601</v>
-      </c>
-      <c r="G8">
-        <v>0.54523897171020497</v>
-      </c>
-      <c r="H8">
-        <v>0.415708988904953</v>
-      </c>
-      <c r="I8">
-        <v>0.67587697505950906</v>
-      </c>
-      <c r="J8">
-        <v>0.70570200681686401</v>
-      </c>
-      <c r="K8">
-        <v>0.58728098869323697</v>
-      </c>
-      <c r="L8">
-        <v>0.58161902427673295</v>
-      </c>
-      <c r="M8">
-        <v>0.615179002285003</v>
-      </c>
-      <c r="N8">
-        <v>0.48682099580764698</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>207</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>0.62280702590942305</v>
-      </c>
-      <c r="D9">
-        <v>0.67850899696350098</v>
-      </c>
-      <c r="E9">
-        <v>0.56973701715469305</v>
-      </c>
-      <c r="F9">
-        <v>0.452228993177413</v>
-      </c>
-      <c r="G9">
-        <v>0.51344197988510099</v>
-      </c>
-      <c r="H9">
-        <v>0.39834401011466902</v>
-      </c>
-      <c r="I9">
-        <v>0.62280702590942305</v>
-      </c>
-      <c r="J9">
-        <v>0.67850899696350098</v>
-      </c>
-      <c r="K9">
-        <v>0.56973701715469305</v>
-      </c>
-      <c r="L9">
-        <v>0.52398502826690596</v>
-      </c>
-      <c r="M9">
-        <v>0.58454602956771795</v>
-      </c>
-      <c r="N9">
-        <v>0.468867987394332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>208</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>0.58947402238845803</v>
-      </c>
-      <c r="D10">
-        <v>0.65570199489593495</v>
-      </c>
-      <c r="E10">
-        <v>0.52719300985336304</v>
-      </c>
-      <c r="F10">
-        <v>0.41791000962257302</v>
-      </c>
-      <c r="G10">
-        <v>0.48776501417160001</v>
-      </c>
-      <c r="H10">
-        <v>0.35795098543167098</v>
-      </c>
-      <c r="I10">
-        <v>0.58947402238845803</v>
-      </c>
-      <c r="J10">
-        <v>0.65570199489593495</v>
-      </c>
-      <c r="K10">
-        <v>0.52719300985336304</v>
-      </c>
-      <c r="L10">
-        <v>0.489082992076873</v>
-      </c>
-      <c r="M10">
-        <v>0.559400975704193</v>
-      </c>
-      <c r="N10">
-        <v>0.42639198899269098</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>209</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>0.56973701715469305</v>
-      </c>
-      <c r="D11">
-        <v>0.63377201557159402</v>
-      </c>
-      <c r="E11">
-        <v>0.51929801702499301</v>
-      </c>
-      <c r="F11">
-        <v>0.39834401011466902</v>
-      </c>
-      <c r="G11">
-        <v>0.46388399600982599</v>
-      </c>
-      <c r="H11">
-        <v>0.35071098804473799</v>
-      </c>
-      <c r="I11">
-        <v>0.56973701715469305</v>
-      </c>
-      <c r="J11">
-        <v>0.63377201557159402</v>
-      </c>
-      <c r="K11">
-        <v>0.51929801702499301</v>
-      </c>
-      <c r="L11">
-        <v>0.468867987394332</v>
-      </c>
-      <c r="M11">
-        <v>0.53568100929260198</v>
-      </c>
-      <c r="N11">
-        <v>0.41866999864578203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>210</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>0.55394697189330999</v>
-      </c>
-      <c r="D12">
-        <v>0.61228102445602395</v>
-      </c>
-      <c r="E12">
-        <v>0.51403498649597101</v>
-      </c>
-      <c r="F12">
-        <v>0.383076012134552</v>
-      </c>
-      <c r="G12">
-        <v>0.44121399521827698</v>
-      </c>
-      <c r="H12">
-        <v>0.34592700004577598</v>
-      </c>
-      <c r="I12">
-        <v>0.55394697189330999</v>
-      </c>
-      <c r="J12">
-        <v>0.61228102445602395</v>
-      </c>
-      <c r="K12">
-        <v>0.51403498649597101</v>
-      </c>
-      <c r="L12">
-        <v>0.45293200016021701</v>
-      </c>
-      <c r="M12">
-        <v>0.51285797357559204</v>
-      </c>
-      <c r="N12">
-        <v>0.41354998946189803</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="C15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2">
-        <f>AVERAGE(C3:C12)</f>
-        <v>0.68478069901466321</v>
-      </c>
-      <c r="D16" s="2">
-        <f>AVERAGE(D3:D12)</f>
-        <v>0.71162300109863263</v>
-      </c>
-      <c r="E16" s="2">
-        <f>AVERAGE(E3:E12)</f>
-        <v>0.59947369694709729</v>
-      </c>
-      <c r="F16" s="2">
-        <f>AVERAGE(F3:F12)</f>
-        <v>0.52787800133228235</v>
-      </c>
-      <c r="G16" s="2">
-        <f>AVERAGE(G3:G12)</f>
-        <v>0.55584299862384756</v>
-      </c>
-      <c r="H16" s="2">
-        <f>AVERAGE(H3:H12)</f>
-        <v>0.43392750024795479</v>
-      </c>
-      <c r="I16" s="2">
-        <f>AVERAGE(I3:I12)</f>
-        <v>0.68478069901466321</v>
-      </c>
-      <c r="J16" s="2">
-        <f>AVERAGE(J3:J12)</f>
-        <v>0.71162300109863263</v>
-      </c>
-      <c r="K16" s="2">
-        <f>AVERAGE(K3:K12)</f>
-        <v>0.59947369694709729</v>
-      </c>
-      <c r="L16" s="2">
-        <f>AVERAGE(L3:L12)</f>
-        <v>0.59551419913768711</v>
-      </c>
-      <c r="M16" s="2">
-        <f>AVERAGE(M3:M12)</f>
-        <v>0.62382299900054872</v>
-      </c>
-      <c r="N16" s="2">
-        <f>AVERAGE(N3:N12)</f>
-        <v>0.5028185993432992</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:N12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>201</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0.64254397153854304</v>
-      </c>
-      <c r="D3">
-        <v>0.63771897554397505</v>
-      </c>
-      <c r="E3">
-        <v>0.64254397153854304</v>
-      </c>
-      <c r="F3">
-        <v>0.26444000005722001</v>
-      </c>
-      <c r="G3">
-        <v>0.260387003421783</v>
-      </c>
-      <c r="H3">
-        <v>0.26444000005722001</v>
-      </c>
-      <c r="I3">
-        <v>0.64254397153854304</v>
-      </c>
-      <c r="J3">
-        <v>0.63771897554397505</v>
-      </c>
-      <c r="K3">
-        <v>0.64254397153854304</v>
-      </c>
-      <c r="L3">
-        <v>0.37468001246452298</v>
-      </c>
-      <c r="M3">
-        <v>0.36978599429130499</v>
-      </c>
-      <c r="N3">
-        <v>0.37468001246452298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>202</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0.59868401288986195</v>
-      </c>
-      <c r="D4">
-        <v>0.581579029560089</v>
-      </c>
-      <c r="E4">
-        <v>0.48728099465370101</v>
-      </c>
-      <c r="F4">
-        <v>0.229798004031181</v>
-      </c>
-      <c r="G4">
-        <v>0.21751999855041501</v>
-      </c>
-      <c r="H4">
-        <v>0.159718006849288</v>
-      </c>
-      <c r="I4">
-        <v>0.59868401288986195</v>
-      </c>
-      <c r="J4">
-        <v>0.581579029560089</v>
-      </c>
-      <c r="K4">
-        <v>0.48728099465370101</v>
-      </c>
-      <c r="L4">
-        <v>0.33211699128150901</v>
-      </c>
-      <c r="M4">
-        <v>0.31661900877952498</v>
-      </c>
-      <c r="N4">
-        <v>0.24058000743389099</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>203</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0.56228101253509499</v>
-      </c>
-      <c r="D5">
-        <v>0.55657899379730202</v>
-      </c>
-      <c r="E5">
-        <v>0.36052599549293501</v>
-      </c>
-      <c r="F5">
-        <v>0.20440100133419001</v>
-      </c>
-      <c r="G5">
-        <v>0.20066399872303001</v>
-      </c>
-      <c r="H5">
-        <v>0.10133100301027199</v>
-      </c>
-      <c r="I5">
-        <v>0.56228101253509499</v>
-      </c>
-      <c r="J5">
-        <v>0.55657899379730202</v>
-      </c>
-      <c r="K5">
-        <v>0.36052599549293501</v>
-      </c>
-      <c r="L5">
-        <v>0.299813002347946</v>
-      </c>
-      <c r="M5">
-        <v>0.29497900605201699</v>
-      </c>
-      <c r="N5">
-        <v>0.158198997378349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>204</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>0.53114002943038896</v>
-      </c>
-      <c r="D6">
-        <v>0.51973700523376398</v>
-      </c>
-      <c r="E6">
-        <v>0.33947399258613498</v>
-      </c>
-      <c r="F6">
-        <v>0.184716001152992</v>
-      </c>
-      <c r="G6">
-        <v>0.177928000688552</v>
-      </c>
-      <c r="H6">
-        <v>9.3208000063896096E-2</v>
-      </c>
-      <c r="I6">
-        <v>0.53114002943038896</v>
-      </c>
-      <c r="J6">
-        <v>0.51973700523376398</v>
-      </c>
-      <c r="K6">
-        <v>0.33947399258613498</v>
-      </c>
-      <c r="L6">
-        <v>0.274105995893478</v>
-      </c>
-      <c r="M6">
-        <v>0.26510098576545699</v>
-      </c>
-      <c r="N6">
-        <v>0.146258994936943</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>205</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>0.45789501070976202</v>
-      </c>
-      <c r="D7">
-        <v>0.42719298601150502</v>
-      </c>
-      <c r="E7">
-        <v>0.33421099185943598</v>
-      </c>
-      <c r="F7">
-        <v>0.144518002867698</v>
-      </c>
-      <c r="G7">
-        <v>0.12979699671268399</v>
-      </c>
-      <c r="H7">
-        <v>9.1236002743244102E-2</v>
-      </c>
-      <c r="I7">
-        <v>0.45789501070976202</v>
-      </c>
-      <c r="J7">
-        <v>0.42719298601150502</v>
-      </c>
-      <c r="K7">
-        <v>0.33421099185943598</v>
-      </c>
-      <c r="L7">
-        <v>0.21969699859619099</v>
-      </c>
-      <c r="M7">
-        <v>0.19910100102424599</v>
-      </c>
-      <c r="N7">
-        <v>0.14334100484848</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>206</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>0.39429798722267101</v>
-      </c>
-      <c r="D8">
-        <v>0.398245990276336</v>
-      </c>
-      <c r="E8">
-        <v>0.31359601020812899</v>
-      </c>
-      <c r="F8">
-        <v>0.115197002887725</v>
-      </c>
-      <c r="G8">
-        <v>0.116889998316764</v>
-      </c>
-      <c r="H8">
-        <v>8.3723999559879303E-2</v>
-      </c>
-      <c r="I8">
-        <v>0.39429798722267101</v>
-      </c>
-      <c r="J8">
-        <v>0.398245990276336</v>
-      </c>
-      <c r="K8">
-        <v>0.31359601020812899</v>
-      </c>
-      <c r="L8">
-        <v>0.17830200493335699</v>
-      </c>
-      <c r="M8">
-        <v>0.180731996893882</v>
-      </c>
-      <c r="N8">
-        <v>0.13216300308704301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>207</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>0.35964900255203203</v>
-      </c>
-      <c r="D9">
-        <v>0.36666700243949801</v>
-      </c>
-      <c r="E9">
-        <v>0.28201800584793002</v>
-      </c>
-      <c r="F9">
-        <v>0.100984998047351</v>
-      </c>
-      <c r="G9">
-        <v>0.10377400368452</v>
-      </c>
-      <c r="H9">
-        <v>7.2835996747016907E-2</v>
-      </c>
-      <c r="I9">
-        <v>0.35964900255203203</v>
-      </c>
-      <c r="J9">
-        <v>0.36666700243949801</v>
-      </c>
-      <c r="K9">
-        <v>0.28201800584793002</v>
-      </c>
-      <c r="L9">
-        <v>0.157692000269889</v>
-      </c>
-      <c r="M9">
-        <v>0.16176499426364899</v>
-      </c>
-      <c r="N9">
-        <v>0.115772001445293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>208</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>0.30394700169563199</v>
-      </c>
-      <c r="D10">
-        <v>0.33947399258613498</v>
-      </c>
-      <c r="E10">
-        <v>0.25043898820876997</v>
-      </c>
-      <c r="F10">
-        <v>8.0320000648498494E-2</v>
-      </c>
-      <c r="G10">
-        <v>9.3208000063896096E-2</v>
-      </c>
-      <c r="H10">
-        <v>6.2637001276016194E-2</v>
-      </c>
-      <c r="I10">
-        <v>0.30394700169563199</v>
-      </c>
-      <c r="J10">
-        <v>0.33947399258613498</v>
-      </c>
-      <c r="K10">
-        <v>0.25043898820876997</v>
-      </c>
-      <c r="L10">
-        <v>0.12706300616264299</v>
-      </c>
-      <c r="M10">
-        <v>0.146258994936943</v>
-      </c>
-      <c r="N10">
-        <v>0.100211001932621</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>209</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>0.29385998845100397</v>
-      </c>
-      <c r="D11">
-        <v>0.31973698735237099</v>
-      </c>
-      <c r="E11">
-        <v>0.24649100005626601</v>
-      </c>
-      <c r="F11">
-        <v>7.6834999024867998E-2</v>
-      </c>
-      <c r="G11">
-        <v>8.5925996303558294E-2</v>
-      </c>
-      <c r="H11">
-        <v>6.1406999826431198E-2</v>
-      </c>
-      <c r="I11">
-        <v>0.29385998845100397</v>
-      </c>
-      <c r="J11">
-        <v>0.31973698735237099</v>
-      </c>
-      <c r="K11">
-        <v>0.24649100005626601</v>
-      </c>
-      <c r="L11">
-        <v>0.12181799858808499</v>
-      </c>
-      <c r="M11">
-        <v>0.13545200228691101</v>
-      </c>
-      <c r="N11">
-        <v>9.8320998251438099E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>210</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>0.27894699573516801</v>
-      </c>
-      <c r="D12">
-        <v>0.28771901130676197</v>
-      </c>
-      <c r="E12">
-        <v>0.242543995380401</v>
-      </c>
-      <c r="F12">
-        <v>7.1815997362136799E-2</v>
-      </c>
-      <c r="G12">
-        <v>7.4749000370502403E-2</v>
-      </c>
-      <c r="H12">
-        <v>6.01870007812976E-2</v>
-      </c>
-      <c r="I12">
-        <v>0.27894699573516801</v>
-      </c>
-      <c r="J12">
-        <v>0.28771901130676197</v>
-      </c>
-      <c r="K12">
-        <v>0.242543995380401</v>
-      </c>
-      <c r="L12">
-        <v>0.11422400176525099</v>
-      </c>
-      <c r="M12">
-        <v>0.118669003248214</v>
-      </c>
-      <c r="N12">
-        <v>9.6441999077796894E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="C15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2">
-        <f>AVERAGE(C3:C12)</f>
-        <v>0.44232450127601569</v>
-      </c>
-      <c r="D16" s="2">
-        <f>AVERAGE(D3:D12)</f>
-        <v>0.44346499741077372</v>
-      </c>
-      <c r="E16" s="2">
-        <f>AVERAGE(E3:E12)</f>
-        <v>0.3499123945832246</v>
-      </c>
-      <c r="F16" s="2">
-        <f>AVERAGE(F3:F12)</f>
-        <v>0.14730260074138604</v>
-      </c>
-      <c r="G16" s="2">
-        <f>AVERAGE(G3:G12)</f>
-        <v>0.14608429968357051</v>
-      </c>
-      <c r="H16" s="2">
-        <f>AVERAGE(H3:H12)</f>
-        <v>0.10507240109145614</v>
-      </c>
-      <c r="I16" s="2">
-        <f>AVERAGE(I3:I12)</f>
-        <v>0.44232450127601569</v>
-      </c>
-      <c r="J16" s="2">
-        <f>AVERAGE(J3:J12)</f>
-        <v>0.44346499741077372</v>
-      </c>
-      <c r="K16" s="2">
-        <f>AVERAGE(K3:K12)</f>
-        <v>0.3499123945832246</v>
-      </c>
-      <c r="L16" s="2">
-        <f>AVERAGE(L3:L12)</f>
-        <v>0.21995120123028719</v>
-      </c>
-      <c r="M16" s="2">
-        <f>AVERAGE(M3:M12)</f>
-        <v>0.21884629875421488</v>
-      </c>
-      <c r="N16" s="2">
-        <f>AVERAGE(N3:N12)</f>
-        <v>0.16059680208563781</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:N12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>201</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0.51228100061416604</v>
-      </c>
-      <c r="D3">
-        <v>0.50745600461959794</v>
-      </c>
-      <c r="E3">
-        <v>0.51228100061416604</v>
-      </c>
-      <c r="F3">
-        <v>9.5051996409892994E-2</v>
-      </c>
-      <c r="G3">
-        <v>9.3404002487659399E-2</v>
-      </c>
-      <c r="H3">
-        <v>9.5051996409892994E-2</v>
-      </c>
-      <c r="I3">
-        <v>0.51228100061416604</v>
-      </c>
-      <c r="J3">
-        <v>0.50745600461959794</v>
-      </c>
-      <c r="K3">
-        <v>0.51228100061416604</v>
-      </c>
-      <c r="L3">
-        <v>0.16035099327564201</v>
-      </c>
-      <c r="M3">
-        <v>0.157768994569778</v>
-      </c>
-      <c r="N3">
-        <v>0.16035099327564201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>202</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0.45964899659156799</v>
-      </c>
-      <c r="D4">
-        <v>0.44517499208450301</v>
-      </c>
-      <c r="E4">
-        <v>0.36403501033782898</v>
-      </c>
-      <c r="F4">
-        <v>7.8395999968051897E-2</v>
-      </c>
-      <c r="G4">
-        <v>7.4276998639106695E-2</v>
-      </c>
-      <c r="H4">
-        <v>5.4141998291015597E-2</v>
-      </c>
-      <c r="I4">
-        <v>0.45964899659156799</v>
-      </c>
-      <c r="J4">
-        <v>0.44517499208450301</v>
-      </c>
-      <c r="K4">
-        <v>0.36403501033782898</v>
-      </c>
-      <c r="L4">
-        <v>0.13394699990749301</v>
-      </c>
-      <c r="M4">
-        <v>0.127313002943992</v>
-      </c>
-      <c r="N4">
-        <v>9.4264999032020499E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>203</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0.38859599828719998</v>
-      </c>
-      <c r="D5">
-        <v>0.396052986383438</v>
-      </c>
-      <c r="E5">
-        <v>0.25087699294090199</v>
-      </c>
-      <c r="F5">
-        <v>5.9760000556707299E-2</v>
-      </c>
-      <c r="G5">
-        <v>6.1542000621557201E-2</v>
-      </c>
-      <c r="H5">
-        <v>3.2404001802205998E-2</v>
-      </c>
-      <c r="I5">
-        <v>0.38859599828719998</v>
-      </c>
-      <c r="J5">
-        <v>0.396052986383438</v>
-      </c>
-      <c r="K5">
-        <v>0.25087699294090199</v>
-      </c>
-      <c r="L5">
-        <v>0.10358899831771801</v>
-      </c>
-      <c r="M5">
-        <v>0.106530003249645</v>
-      </c>
-      <c r="N5">
-        <v>5.7395000010728801E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>204</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>0.360087990760803</v>
-      </c>
-      <c r="D6">
-        <v>0.36622801423072798</v>
-      </c>
-      <c r="E6">
-        <v>0.23201799392700101</v>
-      </c>
-      <c r="F6">
-        <v>5.3273998200893402E-2</v>
-      </c>
-      <c r="G6">
-        <v>5.4629001766443197E-2</v>
-      </c>
-      <c r="H6">
-        <v>2.93249990791082E-2</v>
-      </c>
-      <c r="I6">
-        <v>0.360087990760803</v>
-      </c>
-      <c r="J6">
-        <v>0.36622801423072798</v>
-      </c>
-      <c r="K6">
-        <v>0.23201799392700101</v>
-      </c>
-      <c r="L6">
-        <v>9.2816002666950198E-2</v>
-      </c>
-      <c r="M6">
-        <v>9.5074996352195698E-2</v>
-      </c>
-      <c r="N6">
-        <v>5.2069000899791697E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>205</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>0.30570200085639898</v>
-      </c>
-      <c r="D7">
-        <v>0.28947401046752902</v>
-      </c>
-      <c r="E7">
-        <v>0.226753994822502</v>
-      </c>
-      <c r="F7">
-        <v>4.2172998189926099E-2</v>
-      </c>
-      <c r="G7">
-        <v>3.9145998656749698E-2</v>
-      </c>
-      <c r="H7">
-        <v>2.8489999473094899E-2</v>
-      </c>
-      <c r="I7">
-        <v>0.30570200085639898</v>
-      </c>
-      <c r="J7">
-        <v>0.28947401046752902</v>
-      </c>
-      <c r="K7">
-        <v>0.226753994822502</v>
-      </c>
-      <c r="L7">
-        <v>7.4120998382568304E-2</v>
-      </c>
-      <c r="M7">
-        <v>6.8966001272201496E-2</v>
-      </c>
-      <c r="N7">
-        <v>5.06189987063407E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>206</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>0.26886001229286099</v>
-      </c>
-      <c r="D8">
-        <v>0.26666700839996299</v>
-      </c>
-      <c r="E8">
-        <v>0.20745599269866899</v>
-      </c>
-      <c r="F8">
-        <v>3.5468000918626702E-2</v>
-      </c>
-      <c r="G8">
-        <v>3.5087998956441803E-2</v>
-      </c>
-      <c r="H8">
-        <v>2.5507999584078699E-2</v>
-      </c>
-      <c r="I8">
-        <v>0.26886001229286099</v>
-      </c>
-      <c r="J8">
-        <v>0.26666700839996299</v>
-      </c>
-      <c r="K8">
-        <v>0.20745599269866899</v>
-      </c>
-      <c r="L8">
-        <v>6.2669001519679995E-2</v>
-      </c>
-      <c r="M8">
-        <v>6.2015999108552898E-2</v>
-      </c>
-      <c r="N8">
-        <v>4.5430999249219797E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>207</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>0.23333300650119701</v>
-      </c>
-      <c r="D9">
-        <v>0.25438600778579701</v>
-      </c>
-      <c r="E9">
-        <v>0.18640400469303101</v>
-      </c>
-      <c r="F9">
-        <v>2.95359995216131E-2</v>
-      </c>
-      <c r="G9">
-        <v>3.2992001622915199E-2</v>
-      </c>
-      <c r="H9">
-        <v>2.23980005830526E-2</v>
-      </c>
-      <c r="I9">
-        <v>0.23333300650119701</v>
-      </c>
-      <c r="J9">
-        <v>0.25438600778579701</v>
-      </c>
-      <c r="K9">
-        <v>0.18640400469303101</v>
-      </c>
-      <c r="L9">
-        <v>5.2434001117944697E-2</v>
-      </c>
-      <c r="M9">
-        <v>5.8409001678228302E-2</v>
-      </c>
-      <c r="N9">
-        <v>3.9990998804569203E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>208</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>0.20877200365066501</v>
-      </c>
-      <c r="D10">
-        <v>0.23026299476623499</v>
-      </c>
-      <c r="E10">
-        <v>0.167981997132301</v>
-      </c>
-      <c r="F10">
-        <v>2.5707000866532301E-2</v>
-      </c>
-      <c r="G10">
-        <v>2.9046000912785499E-2</v>
-      </c>
-      <c r="H10">
-        <v>1.9789999350905401E-2</v>
-      </c>
-      <c r="I10">
-        <v>0.20877200365066501</v>
-      </c>
-      <c r="J10">
-        <v>0.23026299476623499</v>
-      </c>
-      <c r="K10">
-        <v>0.167981997132301</v>
-      </c>
-      <c r="L10">
-        <v>4.5777998864650699E-2</v>
-      </c>
-      <c r="M10">
-        <v>5.15840016305446E-2</v>
-      </c>
-      <c r="N10">
-        <v>3.5408999770879697E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>209</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>0.20306999981403301</v>
-      </c>
-      <c r="D11">
-        <v>0.21666699647903401</v>
-      </c>
-      <c r="E11">
-        <v>0.16359600424766499</v>
-      </c>
-      <c r="F11">
-        <v>2.4847999215125999E-2</v>
-      </c>
-      <c r="G11">
-        <v>2.6915000751614501E-2</v>
-      </c>
-      <c r="H11">
-        <v>1.9184000790119098E-2</v>
-      </c>
-      <c r="I11">
-        <v>0.20306999981403301</v>
-      </c>
-      <c r="J11">
-        <v>0.21666699647903401</v>
-      </c>
-      <c r="K11">
-        <v>0.16359600424766499</v>
-      </c>
-      <c r="L11">
-        <v>4.42790016531944E-2</v>
-      </c>
-      <c r="M11">
-        <v>4.7882001847028698E-2</v>
-      </c>
-      <c r="N11">
-        <v>3.4341000020503998E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>210</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>0.193421006202697</v>
-      </c>
-      <c r="D12">
-        <v>0.19736799597740101</v>
-      </c>
-      <c r="E12">
-        <v>0.166666999459266</v>
-      </c>
-      <c r="F12">
-        <v>2.34190002083778E-2</v>
-      </c>
-      <c r="G12">
-        <v>2.4000000208616201E-2</v>
-      </c>
-      <c r="H12">
-        <v>1.9608000293373999E-2</v>
-      </c>
-      <c r="I12">
-        <v>0.193421006202697</v>
-      </c>
-      <c r="J12">
-        <v>0.19736799597740101</v>
-      </c>
-      <c r="K12">
-        <v>0.166666999459266</v>
-      </c>
-      <c r="L12">
-        <v>4.1779000312089899E-2</v>
-      </c>
-      <c r="M12">
-        <v>4.2796000838279703E-2</v>
-      </c>
-      <c r="N12">
-        <v>3.5087998956441803E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="C15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2">
-        <f>AVERAGE(C3:C12)</f>
-        <v>0.31337720155715887</v>
-      </c>
-      <c r="D16" s="2">
-        <f>AVERAGE(D3:D12)</f>
-        <v>0.31697370111942258</v>
-      </c>
-      <c r="E16" s="2">
-        <f>AVERAGE(E3:E12)</f>
-        <v>0.24780699908733322</v>
-      </c>
-      <c r="F16" s="2">
-        <f>AVERAGE(F3:F12)</f>
-        <v>4.6763299405574763E-2</v>
-      </c>
-      <c r="G16" s="2">
-        <f>AVERAGE(G3:G12)</f>
-        <v>4.7103900462388944E-2</v>
-      </c>
-      <c r="H16" s="2">
-        <f>AVERAGE(H3:H12)</f>
-        <v>3.4590099565684748E-2</v>
-      </c>
-      <c r="I16" s="2">
-        <f>AVERAGE(I3:I12)</f>
-        <v>0.31337720155715887</v>
-      </c>
-      <c r="J16" s="2">
-        <f>AVERAGE(J3:J12)</f>
-        <v>0.31697370111942258</v>
-      </c>
-      <c r="K16" s="2">
-        <f>AVERAGE(K3:K12)</f>
-        <v>0.24780699908733322</v>
-      </c>
-      <c r="L16" s="2">
-        <f>AVERAGE(L3:L12)</f>
-        <v>8.1176299601793137E-2</v>
-      </c>
-      <c r="M16" s="2">
-        <f>AVERAGE(M3:M12)</f>
-        <v>8.1834000349044644E-2</v>
-      </c>
-      <c r="N16" s="2">
-        <f>AVERAGE(N3:N12)</f>
-        <v>6.0495898872613821E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B12"/>
+      <selection activeCell="C3" sqref="C3:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52368,7 +52173,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -52415,40 +52220,40 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.58922302722930897</v>
+        <v>0.33281800150871199</v>
       </c>
       <c r="D3">
-        <v>0.53546100854873602</v>
+        <v>0.30584499239921498</v>
       </c>
       <c r="E3">
-        <v>0.58922302722930897</v>
+        <v>0.33281800150871199</v>
       </c>
       <c r="F3">
-        <v>0.50920999050140303</v>
+        <v>0.33331000804901101</v>
       </c>
       <c r="G3">
-        <v>0.50637197494506803</v>
+        <v>0.33115398883819502</v>
       </c>
       <c r="H3">
-        <v>0.50920999050140303</v>
+        <v>0.33331000804901101</v>
       </c>
       <c r="I3">
-        <v>0.92368400096893299</v>
+        <v>0.80657899379730202</v>
       </c>
       <c r="J3">
-        <v>0.91842097043991</v>
+        <v>0.80175399780273404</v>
       </c>
       <c r="K3">
-        <v>0.92368400096893299</v>
+        <v>0.80657899379730202</v>
       </c>
       <c r="L3">
-        <v>0.54630202054977395</v>
+        <v>0.33306398987769997</v>
       </c>
       <c r="M3">
-        <v>0.52051001787185602</v>
+        <v>0.31799700856208801</v>
       </c>
       <c r="N3">
-        <v>0.54630202054977395</v>
+        <v>0.33306398987769997</v>
       </c>
     </row>
     <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -52459,40 +52264,40 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.52060902118682795</v>
+        <v>0.33752900362014698</v>
       </c>
       <c r="D4">
-        <v>0.53415399789810103</v>
+        <v>0.37675800919532698</v>
       </c>
       <c r="E4">
-        <v>0.51431697607040405</v>
+        <v>0.34803199768066401</v>
       </c>
       <c r="F4">
-        <v>0.508076012134552</v>
+        <v>0.32441198825836098</v>
       </c>
       <c r="G4">
-        <v>0.51999902725219704</v>
+        <v>0.33033800125121998</v>
       </c>
       <c r="H4">
-        <v>0.52178502082824696</v>
+        <v>0.30055499076843201</v>
       </c>
       <c r="I4">
-        <v>0.90614002943038896</v>
+        <v>0.77938598394393899</v>
       </c>
       <c r="J4">
-        <v>0.89736801385879505</v>
+        <v>0.77412301301956099</v>
       </c>
       <c r="K4">
-        <v>0.83377200365066495</v>
+        <v>0.70131599903106601</v>
       </c>
       <c r="L4">
-        <v>0.51426601409912098</v>
+        <v>0.33084100484848</v>
       </c>
       <c r="M4">
-        <v>0.52698099613189697</v>
+        <v>0.35202398896217302</v>
       </c>
       <c r="N4">
-        <v>0.51802402734756403</v>
+        <v>0.32255598902702298</v>
       </c>
     </row>
     <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -52503,40 +52308,40 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.52863001823425204</v>
+        <v>0.38068899512290899</v>
       </c>
       <c r="D5">
-        <v>0.523836970329284</v>
+        <v>0.38040500879287698</v>
       </c>
       <c r="E5">
-        <v>0.51618999242782504</v>
+        <v>0.35604900121688798</v>
       </c>
       <c r="F5">
-        <v>0.51539397239685003</v>
+        <v>0.32867801189422602</v>
       </c>
       <c r="G5">
-        <v>0.51621401309966997</v>
+        <v>0.32969099283218301</v>
       </c>
       <c r="H5">
-        <v>0.546505987644195</v>
+        <v>0.26048800349235501</v>
       </c>
       <c r="I5">
-        <v>0.89912301301956099</v>
+        <v>0.77894699573516801</v>
       </c>
       <c r="J5">
-        <v>0.89035099744796697</v>
+        <v>0.76447397470474199</v>
       </c>
       <c r="K5">
-        <v>0.71491199731826705</v>
+        <v>0.58552598953247004</v>
       </c>
       <c r="L5">
-        <v>0.52192801237106301</v>
+        <v>0.35277700424194303</v>
       </c>
       <c r="M5">
-        <v>0.51999801397323597</v>
+        <v>0.35323700308799699</v>
       </c>
       <c r="N5">
-        <v>0.53091597557067804</v>
+        <v>0.300862997770309</v>
       </c>
     </row>
     <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -52547,40 +52352,40 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.51937198638916005</v>
+        <v>0.38961398601531899</v>
       </c>
       <c r="D6">
-        <v>0.51806998252868597</v>
+        <v>0.38727200031280501</v>
       </c>
       <c r="E6">
-        <v>0.52145302295684803</v>
+        <v>0.36472800374031</v>
       </c>
       <c r="F6">
-        <v>0.515205979347229</v>
+        <v>0.33241900801658603</v>
       </c>
       <c r="G6">
-        <v>0.51449602842330899</v>
+        <v>0.33151298761367798</v>
       </c>
       <c r="H6">
-        <v>0.56115597486495905</v>
+        <v>0.262876987457275</v>
       </c>
       <c r="I6">
-        <v>0.88333302736282304</v>
+        <v>0.75921100378036499</v>
       </c>
       <c r="J6">
-        <v>0.88201802968978804</v>
+        <v>0.75921100378036499</v>
       </c>
       <c r="K6">
-        <v>0.721490979194641</v>
+        <v>0.58245599269866899</v>
       </c>
       <c r="L6">
-        <v>0.51727998256683305</v>
+        <v>0.35875099897384599</v>
       </c>
       <c r="M6">
-        <v>0.516277015209198</v>
+        <v>0.35723000764846802</v>
       </c>
       <c r="N6">
-        <v>0.54057598114013605</v>
+        <v>0.30553799867629999</v>
       </c>
     </row>
     <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -52591,40 +52396,40 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.49923598766326899</v>
+        <v>0.35519099235534601</v>
       </c>
       <c r="D7">
-        <v>0.53071099519729603</v>
+        <v>0.39586099982261602</v>
       </c>
       <c r="E7">
-        <v>0.53565800189971902</v>
+        <v>0.38708001375198298</v>
       </c>
       <c r="F7">
-        <v>0.498997002840042</v>
+        <v>0.30859500169754001</v>
       </c>
       <c r="G7">
-        <v>0.53804200887679998</v>
+        <v>0.33506900072097701</v>
       </c>
       <c r="H7">
-        <v>0.60220402479171697</v>
+        <v>0.27950701117515497</v>
       </c>
       <c r="I7">
-        <v>0.84298199415206898</v>
+        <v>0.711842000484466</v>
       </c>
       <c r="J7">
-        <v>0.85877197980880704</v>
+        <v>0.73070198297500599</v>
       </c>
       <c r="K7">
-        <v>0.73070198297500599</v>
+        <v>0.60131597518920898</v>
       </c>
       <c r="L7">
-        <v>0.49911600351333602</v>
+        <v>0.33025801181793202</v>
       </c>
       <c r="M7">
-        <v>0.53435099124908403</v>
+        <v>0.36293700337409901</v>
       </c>
       <c r="N7">
-        <v>0.56698501110076904</v>
+        <v>0.32461300492286599</v>
       </c>
     </row>
     <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -52635,40 +52440,40 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.49977499246597201</v>
+        <v>0.35969799757003701</v>
       </c>
       <c r="D8">
-        <v>0.53670001029968195</v>
+        <v>0.39000400900840698</v>
       </c>
       <c r="E8">
-        <v>0.53459697961807195</v>
+        <v>0.38898000121116599</v>
       </c>
       <c r="F8">
-        <v>0.49963000416755599</v>
+        <v>0.30464899539947499</v>
       </c>
       <c r="G8">
-        <v>0.556573987007141</v>
+        <v>0.32689198851585299</v>
       </c>
       <c r="H8">
-        <v>0.60207897424697798</v>
+        <v>0.27598199248313898</v>
       </c>
       <c r="I8">
-        <v>0.81842100620269698</v>
+        <v>0.67587697505950906</v>
       </c>
       <c r="J8">
-        <v>0.84166699647903398</v>
+        <v>0.70570200681686401</v>
       </c>
       <c r="K8">
-        <v>0.72017502784729004</v>
+        <v>0.58728098869323697</v>
       </c>
       <c r="L8">
-        <v>0.49970200657844499</v>
+        <v>0.32989299297332703</v>
       </c>
       <c r="M8">
-        <v>0.546455979347229</v>
+        <v>0.355670005083084</v>
       </c>
       <c r="N8">
-        <v>0.56633502244949296</v>
+        <v>0.32287999987602201</v>
       </c>
     </row>
     <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -52679,40 +52484,40 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.51346999406814497</v>
+        <v>0.36085599660873402</v>
       </c>
       <c r="D9">
-        <v>0.52925997972488403</v>
+        <v>0.38658401370048501</v>
       </c>
       <c r="E9">
-        <v>0.53246498107910101</v>
+        <v>0.39016500115394498</v>
       </c>
       <c r="F9">
-        <v>0.52948498725891102</v>
+        <v>0.289752006530761</v>
       </c>
       <c r="G9">
-        <v>0.55419397354125899</v>
+        <v>0.32078599929809498</v>
       </c>
       <c r="H9">
-        <v>0.598469018936157</v>
+        <v>0.26941299438476501</v>
       </c>
       <c r="I9">
-        <v>0.78114002943038896</v>
+        <v>0.62280702590942305</v>
       </c>
       <c r="J9">
-        <v>0.816667020320892</v>
+        <v>0.67850899696350098</v>
       </c>
       <c r="K9">
-        <v>0.70833301544189398</v>
+        <v>0.56973701715469305</v>
       </c>
       <c r="L9">
-        <v>0.521354019641876</v>
+        <v>0.32141900062561002</v>
       </c>
       <c r="M9">
-        <v>0.5414400100708</v>
+        <v>0.35062500834464999</v>
       </c>
       <c r="N9">
-        <v>0.56354099512100198</v>
+        <v>0.31873598694801297</v>
       </c>
     </row>
     <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -52723,40 +52528,40 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.51420700550079301</v>
+        <v>0.36047899723052901</v>
       </c>
       <c r="D10">
-        <v>0.52946698665618896</v>
+        <v>0.38178798556327798</v>
       </c>
       <c r="E10">
-        <v>0.53166097402572599</v>
+        <v>0.37517699599266002</v>
       </c>
       <c r="F10">
-        <v>0.53689998388290405</v>
+        <v>0.27377200126647899</v>
       </c>
       <c r="G10">
-        <v>0.56474602222442605</v>
+        <v>0.311886996030807</v>
       </c>
       <c r="H10">
-        <v>0.60163998603820801</v>
+        <v>0.24555300176143599</v>
       </c>
       <c r="I10">
-        <v>0.74342101812362604</v>
+        <v>0.58947402238845803</v>
       </c>
       <c r="J10">
-        <v>0.78991198539733798</v>
+        <v>0.65570199489593495</v>
       </c>
       <c r="K10">
-        <v>0.683332979679107</v>
+        <v>0.52719300985336304</v>
       </c>
       <c r="L10">
-        <v>0.52530801296234098</v>
+        <v>0.31119900941848699</v>
       </c>
       <c r="M10">
-        <v>0.54653799533843905</v>
+        <v>0.34331598877906799</v>
       </c>
       <c r="N10">
-        <v>0.56449002027511597</v>
+        <v>0.29683101177215498</v>
       </c>
     </row>
     <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -52767,40 +52572,40 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.50817102193832397</v>
+        <v>0.36472699046134899</v>
       </c>
       <c r="D11">
-        <v>0.53170597553253096</v>
+        <v>0.39086601138114901</v>
       </c>
       <c r="E11">
-        <v>0.52872800827026301</v>
+        <v>0.374906986951828</v>
       </c>
       <c r="F11">
-        <v>0.52253502607345503</v>
+        <v>0.26437699794769198</v>
       </c>
       <c r="G11">
-        <v>0.57477700710296598</v>
+        <v>0.312887012958526</v>
       </c>
       <c r="H11">
-        <v>0.59560197591781605</v>
+        <v>0.24106700718402799</v>
       </c>
       <c r="I11">
-        <v>0.72193002700805597</v>
+        <v>0.56973701715469305</v>
       </c>
       <c r="J11">
-        <v>0.77763199806213301</v>
+        <v>0.63377201557159402</v>
       </c>
       <c r="K11">
-        <v>0.66184198856353704</v>
+        <v>0.51929801702499301</v>
       </c>
       <c r="L11">
-        <v>0.51525300741195601</v>
+        <v>0.30654799938201899</v>
       </c>
       <c r="M11">
-        <v>0.55240297317504805</v>
+        <v>0.34755599498748702</v>
       </c>
       <c r="N11">
-        <v>0.56017601490020696</v>
+        <v>0.293446004390716</v>
       </c>
     </row>
     <row r="12" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -52811,40 +52616,40 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.50865298509597701</v>
+        <v>0.37045800685882502</v>
       </c>
       <c r="D12">
-        <v>0.52856600284576405</v>
+        <v>0.397421985864639</v>
       </c>
       <c r="E12">
-        <v>0.51977497339248602</v>
+        <v>0.38073799014091397</v>
       </c>
       <c r="F12">
-        <v>0.52570599317550604</v>
+        <v>0.26076200604438698</v>
       </c>
       <c r="G12">
-        <v>0.57469999790191595</v>
+        <v>0.31030198931693997</v>
       </c>
       <c r="H12">
-        <v>0.56589198112487704</v>
+        <v>0.242945000529289</v>
       </c>
       <c r="I12">
-        <v>0.696929991245269</v>
+        <v>0.55394697189330999</v>
       </c>
       <c r="J12">
-        <v>0.75175398588180498</v>
+        <v>0.61228102445602395</v>
       </c>
       <c r="K12">
-        <v>0.65306997299194303</v>
+        <v>0.51403498649597101</v>
       </c>
       <c r="L12">
-        <v>0.51703900098800604</v>
+        <v>0.30607798695564198</v>
       </c>
       <c r="M12">
-        <v>0.55066800117492598</v>
+        <v>0.34850001335143999</v>
       </c>
       <c r="N12">
-        <v>0.54185402393340998</v>
+        <v>0.29662001132964999</v>
       </c>
     </row>
     <row r="13" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -52930,55 +52735,55 @@
     <row r="16" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2">
-        <f>AVERAGE(C3:C12)</f>
-        <v>0.5201346039772029</v>
+        <f t="shared" ref="C16:N16" si="0">AVERAGE(C3:C12)</f>
+        <v>0.36120589673519071</v>
       </c>
       <c r="D16" s="2">
-        <f>AVERAGE(D3:D12)</f>
-        <v>0.52979319095611532</v>
+        <f t="shared" si="0"/>
+        <v>0.37928050160407978</v>
       </c>
       <c r="E16" s="2">
-        <f>AVERAGE(E3:E12)</f>
-        <v>0.53240669369697535</v>
+        <f t="shared" si="0"/>
+        <v>0.36986739933490698</v>
       </c>
       <c r="F16" s="2">
-        <f>AVERAGE(F3:F12)</f>
-        <v>0.51611389517784079</v>
+        <f t="shared" si="0"/>
+        <v>0.30207260251045176</v>
       </c>
       <c r="G16" s="2">
-        <f>AVERAGE(G3:G12)</f>
-        <v>0.54201140403747528</v>
+        <f t="shared" si="0"/>
+        <v>0.32405189573764737</v>
       </c>
       <c r="H16" s="2">
-        <f>AVERAGE(H3:H12)</f>
-        <v>0.57045429348945575</v>
+        <f t="shared" si="0"/>
+        <v>0.27116969972848848</v>
       </c>
       <c r="I16" s="2">
-        <f>AVERAGE(I3:I12)</f>
-        <v>0.82171041369438114</v>
+        <f t="shared" si="0"/>
+        <v>0.68478069901466321</v>
       </c>
       <c r="J16" s="2">
-        <f>AVERAGE(J3:J12)</f>
-        <v>0.84245619773864688</v>
+        <f t="shared" si="0"/>
+        <v>0.71162300109863263</v>
       </c>
       <c r="K16" s="2">
-        <f>AVERAGE(K3:K12)</f>
-        <v>0.73513139486312817</v>
+        <f t="shared" si="0"/>
+        <v>0.59947369694709729</v>
       </c>
       <c r="L16" s="2">
-        <f>AVERAGE(L3:L12)</f>
-        <v>0.51775480806827512</v>
+        <f t="shared" si="0"/>
+        <v>0.32808279991149863</v>
       </c>
       <c r="M16" s="2">
-        <f>AVERAGE(M3:M12)</f>
-        <v>0.53556219935417126</v>
+        <f t="shared" si="0"/>
+        <v>0.34890920221805538</v>
       </c>
       <c r="N16" s="2">
-        <f>AVERAGE(N3:N12)</f>
-        <v>0.54991990923881484</v>
+        <f t="shared" si="0"/>
+        <v>0.31151469945907539</v>
       </c>
     </row>
     <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -53278,7 +53083,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -53325,40 +53130,40 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.33281800150871199</v>
+        <v>0.12853400409221599</v>
       </c>
       <c r="D3">
-        <v>0.30584499239921498</v>
+        <v>0.119364999234676</v>
       </c>
       <c r="E3">
-        <v>0.33281800150871199</v>
+        <v>0.12853400409221599</v>
       </c>
       <c r="F3">
-        <v>0.33331000804901101</v>
+        <v>0.16550199687480899</v>
       </c>
       <c r="G3">
-        <v>0.33115398883819502</v>
+        <v>0.16414999961853</v>
       </c>
       <c r="H3">
-        <v>0.33331000804901101</v>
+        <v>0.16550199687480899</v>
       </c>
       <c r="I3">
-        <v>0.80657899379730202</v>
+        <v>0.64254397153854304</v>
       </c>
       <c r="J3">
-        <v>0.80175399780273404</v>
+        <v>0.63771897554397505</v>
       </c>
       <c r="K3">
-        <v>0.80657899379730202</v>
+        <v>0.64254397153854304</v>
       </c>
       <c r="L3">
-        <v>0.33306398987769997</v>
+        <v>0.14469400048255901</v>
       </c>
       <c r="M3">
-        <v>0.31799700856208801</v>
+        <v>0.13821999728679599</v>
       </c>
       <c r="N3">
-        <v>0.33306398987769997</v>
+        <v>0.14469400048255901</v>
       </c>
     </row>
     <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -53369,40 +53174,40 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.33752900362014698</v>
+        <v>0.17867800593376101</v>
       </c>
       <c r="D4">
-        <v>0.37675800919532698</v>
+        <v>0.22147600352764099</v>
       </c>
       <c r="E4">
-        <v>0.34803199768066401</v>
+        <v>0.18249900639057101</v>
       </c>
       <c r="F4">
-        <v>0.32441198825836098</v>
+        <v>0.150676995515823</v>
       </c>
       <c r="G4">
-        <v>0.33033800125121998</v>
+        <v>0.14529900252819</v>
       </c>
       <c r="H4">
-        <v>0.30055499076843201</v>
+        <v>0.114546000957489</v>
       </c>
       <c r="I4">
-        <v>0.77938598394393899</v>
+        <v>0.59868401288986195</v>
       </c>
       <c r="J4">
-        <v>0.77412301301956099</v>
+        <v>0.581579029560089</v>
       </c>
       <c r="K4">
-        <v>0.70131599903106601</v>
+        <v>0.48728099465370101</v>
       </c>
       <c r="L4">
-        <v>0.33084100484848</v>
+        <v>0.16348700225353199</v>
       </c>
       <c r="M4">
-        <v>0.35202398896217302</v>
+        <v>0.17547699809074399</v>
       </c>
       <c r="N4">
-        <v>0.32255598902702298</v>
+        <v>0.14075000584125499</v>
       </c>
     </row>
     <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -53413,40 +53218,40 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.38068899512290899</v>
+        <v>0.18264800310134799</v>
       </c>
       <c r="D5">
-        <v>0.38040500879287698</v>
+        <v>0.206980004906654</v>
       </c>
       <c r="E5">
-        <v>0.35604900121688798</v>
+        <v>0.20490300655364899</v>
       </c>
       <c r="F5">
-        <v>0.32867801189422602</v>
+        <v>0.13911199569702101</v>
       </c>
       <c r="G5">
-        <v>0.32969099283218301</v>
+        <v>0.13784399628639199</v>
       </c>
       <c r="H5">
-        <v>0.26048800349235501</v>
+        <v>8.1265002489089896E-2</v>
       </c>
       <c r="I5">
-        <v>0.77894699573516801</v>
+        <v>0.56228101253509499</v>
       </c>
       <c r="J5">
-        <v>0.76447397470474199</v>
+        <v>0.55657899379730202</v>
       </c>
       <c r="K5">
-        <v>0.58552598953247004</v>
+        <v>0.36052599549293501</v>
       </c>
       <c r="L5">
-        <v>0.35277700424194303</v>
+        <v>0.157933995127677</v>
       </c>
       <c r="M5">
-        <v>0.35323700308799699</v>
+        <v>0.165481001138687</v>
       </c>
       <c r="N5">
-        <v>0.300862997770309</v>
+        <v>0.116374999284744</v>
       </c>
     </row>
     <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -53457,40 +53262,40 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.38961398601531899</v>
+        <v>0.20949800312519001</v>
       </c>
       <c r="D6">
-        <v>0.38727200031280501</v>
+        <v>0.20303900539875</v>
       </c>
       <c r="E6">
-        <v>0.36472800374031</v>
+        <v>0.19812600314617099</v>
       </c>
       <c r="F6">
-        <v>0.33241900801658603</v>
+        <v>0.133965998888015</v>
       </c>
       <c r="G6">
-        <v>0.33151298761367798</v>
+        <v>0.13006700575351701</v>
       </c>
       <c r="H6">
-        <v>0.262876987457275</v>
+        <v>7.5832001864910098E-2</v>
       </c>
       <c r="I6">
-        <v>0.75921100378036499</v>
+        <v>0.53114002943038896</v>
       </c>
       <c r="J6">
-        <v>0.75921100378036499</v>
+        <v>0.51973700523376398</v>
       </c>
       <c r="K6">
-        <v>0.58245599269866899</v>
+        <v>0.33947399258613498</v>
       </c>
       <c r="L6">
-        <v>0.35875099897384599</v>
+        <v>0.16342699527740401</v>
       </c>
       <c r="M6">
-        <v>0.35723000764846802</v>
+        <v>0.15855999290943101</v>
       </c>
       <c r="N6">
-        <v>0.30553799867629999</v>
+        <v>0.109682999551296</v>
       </c>
     </row>
     <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -53501,40 +53306,40 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.35519099235534601</v>
+        <v>0.17868299782276101</v>
       </c>
       <c r="D7">
-        <v>0.39586099982261602</v>
+        <v>0.20319800078868799</v>
       </c>
       <c r="E7">
-        <v>0.38708001375198298</v>
+        <v>0.212702006101608</v>
       </c>
       <c r="F7">
-        <v>0.30859500169754001</v>
+        <v>0.11067699640989299</v>
       </c>
       <c r="G7">
-        <v>0.33506900072097701</v>
+        <v>0.10650199651718099</v>
       </c>
       <c r="H7">
-        <v>0.27950701117515497</v>
+        <v>7.6909996569156605E-2</v>
       </c>
       <c r="I7">
-        <v>0.711842000484466</v>
+        <v>0.45789501070976202</v>
       </c>
       <c r="J7">
-        <v>0.73070198297500599</v>
+        <v>0.42719298601150502</v>
       </c>
       <c r="K7">
-        <v>0.60131597518920898</v>
+        <v>0.33421099185943598</v>
       </c>
       <c r="L7">
-        <v>0.33025801181793202</v>
+        <v>0.13668799400329501</v>
       </c>
       <c r="M7">
-        <v>0.36293700337409901</v>
+        <v>0.13975499570369701</v>
       </c>
       <c r="N7">
-        <v>0.32461300492286599</v>
+        <v>0.112971000373363</v>
       </c>
     </row>
     <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -53545,40 +53350,40 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.35969799757003701</v>
+        <v>0.183833003044128</v>
       </c>
       <c r="D8">
-        <v>0.39000400900840698</v>
+        <v>0.20347200334072099</v>
       </c>
       <c r="E8">
-        <v>0.38898000121116599</v>
+        <v>0.21661899983882901</v>
       </c>
       <c r="F8">
-        <v>0.30464899539947499</v>
+        <v>9.3659996986389105E-2</v>
       </c>
       <c r="G8">
-        <v>0.32689198851585299</v>
+        <v>9.8226003348827307E-2</v>
       </c>
       <c r="H8">
-        <v>0.27598199248313898</v>
+        <v>7.1370996534824302E-2</v>
       </c>
       <c r="I8">
-        <v>0.67587697505950906</v>
+        <v>0.39429798722267101</v>
       </c>
       <c r="J8">
-        <v>0.70570200681686401</v>
+        <v>0.398245990276336</v>
       </c>
       <c r="K8">
-        <v>0.58728098869323697</v>
+        <v>0.31359601020812899</v>
       </c>
       <c r="L8">
-        <v>0.32989299297332703</v>
+        <v>0.124095998704433</v>
       </c>
       <c r="M8">
-        <v>0.355670005083084</v>
+        <v>0.132492005825042</v>
       </c>
       <c r="N8">
-        <v>0.32287999987602201</v>
+        <v>0.107367001473903</v>
       </c>
     </row>
     <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -53589,40 +53394,40 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.36085599660873402</v>
+        <v>0.20237299799919101</v>
       </c>
       <c r="D9">
-        <v>0.38658401370048501</v>
+        <v>0.20446799695491699</v>
       </c>
       <c r="E9">
-        <v>0.39016500115394498</v>
+        <v>0.21049000322818701</v>
       </c>
       <c r="F9">
-        <v>0.289752006530761</v>
+        <v>8.4421001374721499E-2</v>
       </c>
       <c r="G9">
-        <v>0.32078599929809498</v>
+        <v>8.9256003499030998E-2</v>
       </c>
       <c r="H9">
-        <v>0.26941299438476501</v>
+        <v>6.3190996646881104E-2</v>
       </c>
       <c r="I9">
-        <v>0.62280702590942305</v>
+        <v>0.35964900255203203</v>
       </c>
       <c r="J9">
-        <v>0.67850899696350098</v>
+        <v>0.36666700243949801</v>
       </c>
       <c r="K9">
-        <v>0.56973701715469305</v>
+        <v>0.28201800584793002</v>
       </c>
       <c r="L9">
-        <v>0.32141900062561002</v>
+        <v>0.11914200335741</v>
       </c>
       <c r="M9">
-        <v>0.35062500834464999</v>
+        <v>0.124266996979713</v>
       </c>
       <c r="N9">
-        <v>0.31873598694801297</v>
+        <v>9.7200997173786094E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -53633,40 +53438,40 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.36047899723052901</v>
+        <v>0.194571003317832</v>
       </c>
       <c r="D10">
-        <v>0.38178798556327798</v>
+        <v>0.205544993281364</v>
       </c>
       <c r="E10">
-        <v>0.37517699599266002</v>
+        <v>0.20539900660514801</v>
       </c>
       <c r="F10">
-        <v>0.27377200126647899</v>
+        <v>6.8801999092101995E-2</v>
       </c>
       <c r="G10">
-        <v>0.311886996030807</v>
+        <v>8.0995999276638003E-2</v>
       </c>
       <c r="H10">
-        <v>0.24555300176143599</v>
+        <v>5.52639998495578E-2</v>
       </c>
       <c r="I10">
-        <v>0.58947402238845803</v>
+        <v>0.30394700169563199</v>
       </c>
       <c r="J10">
-        <v>0.65570199489593495</v>
+        <v>0.33947399258613498</v>
       </c>
       <c r="K10">
-        <v>0.52719300985336304</v>
+        <v>0.25043898820876997</v>
       </c>
       <c r="L10">
-        <v>0.31119900941848699</v>
+        <v>0.10165700316429099</v>
       </c>
       <c r="M10">
-        <v>0.34331598877906799</v>
+        <v>0.116201996803283</v>
       </c>
       <c r="N10">
-        <v>0.29683101177215498</v>
+        <v>8.7094001471996293E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -53677,40 +53482,40 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.36472699046134899</v>
+        <v>0.19850899279117501</v>
       </c>
       <c r="D11">
-        <v>0.39086601138114901</v>
+        <v>0.20928800106048501</v>
       </c>
       <c r="E11">
-        <v>0.374906986951828</v>
+        <v>0.20633399486541701</v>
       </c>
       <c r="F11">
-        <v>0.26437699794769198</v>
+        <v>6.6644996404647799E-2</v>
       </c>
       <c r="G11">
-        <v>0.312887012958526</v>
+        <v>7.5875997543334905E-2</v>
       </c>
       <c r="H11">
-        <v>0.24106700718402799</v>
+        <v>5.3840000182390199E-2</v>
       </c>
       <c r="I11">
-        <v>0.56973701715469305</v>
+        <v>0.29385998845100397</v>
       </c>
       <c r="J11">
-        <v>0.63377201557159402</v>
+        <v>0.31973698735237099</v>
       </c>
       <c r="K11">
-        <v>0.51929801702499301</v>
+        <v>0.24649100005626601</v>
       </c>
       <c r="L11">
-        <v>0.30654799938201899</v>
+        <v>9.9788002669811193E-2</v>
       </c>
       <c r="M11">
-        <v>0.34755599498748702</v>
+        <v>0.111374996602535</v>
       </c>
       <c r="N11">
-        <v>0.293446004390716</v>
+        <v>8.5396997630596105E-2</v>
       </c>
     </row>
     <row r="12" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -53721,40 +53526,40 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.37045800685882502</v>
+        <v>0.19930100440979001</v>
       </c>
       <c r="D12">
-        <v>0.397421985864639</v>
+        <v>0.20408299565315199</v>
       </c>
       <c r="E12">
-        <v>0.38073799014091397</v>
+        <v>0.20371800661087</v>
       </c>
       <c r="F12">
-        <v>0.26076200604438698</v>
+        <v>6.1918001621961503E-2</v>
       </c>
       <c r="G12">
-        <v>0.31030198931693997</v>
+        <v>6.6147997975349399E-2</v>
       </c>
       <c r="H12">
-        <v>0.242945000529289</v>
+        <v>5.2011001855134902E-2</v>
       </c>
       <c r="I12">
-        <v>0.55394697189330999</v>
+        <v>0.27894699573516801</v>
       </c>
       <c r="J12">
-        <v>0.61228102445602395</v>
+        <v>0.28771901130676197</v>
       </c>
       <c r="K12">
-        <v>0.51403498649597101</v>
+        <v>0.242543995380401</v>
       </c>
       <c r="L12">
-        <v>0.30607798695564198</v>
+        <v>9.4481997191905906E-2</v>
       </c>
       <c r="M12">
-        <v>0.34850001335143999</v>
+        <v>9.9912002682685797E-2</v>
       </c>
       <c r="N12">
-        <v>0.29662001132964999</v>
+        <v>8.2864999771118095E-2</v>
       </c>
     </row>
     <row r="13" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -53840,55 +53645,55 @@
     <row r="16" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2">
-        <f>AVERAGE(C3:C12)</f>
-        <v>0.36120589673519071</v>
+        <f t="shared" ref="C16:N16" si="0">AVERAGE(C3:C12)</f>
+        <v>0.18566280156373921</v>
       </c>
       <c r="D16" s="2">
-        <f>AVERAGE(D3:D12)</f>
-        <v>0.37928050160407978</v>
+        <f t="shared" si="0"/>
+        <v>0.1980914004147048</v>
       </c>
       <c r="E16" s="2">
-        <f>AVERAGE(E3:E12)</f>
-        <v>0.36986739933490698</v>
+        <f t="shared" si="0"/>
+        <v>0.19693240374326659</v>
       </c>
       <c r="F16" s="2">
-        <f>AVERAGE(F3:F12)</f>
-        <v>0.30207260251045176</v>
+        <f t="shared" si="0"/>
+        <v>0.10753799788653831</v>
       </c>
       <c r="G16" s="2">
-        <f>AVERAGE(G3:G12)</f>
-        <v>0.32405189573764737</v>
+        <f t="shared" si="0"/>
+        <v>0.10943640023469905</v>
       </c>
       <c r="H16" s="2">
-        <f>AVERAGE(H3:H12)</f>
-        <v>0.27116969972848848</v>
+        <f t="shared" si="0"/>
+        <v>8.0973199382424282E-2</v>
       </c>
       <c r="I16" s="2">
-        <f>AVERAGE(I3:I12)</f>
-        <v>0.68478069901466321</v>
+        <f t="shared" si="0"/>
+        <v>0.44232450127601569</v>
       </c>
       <c r="J16" s="2">
-        <f>AVERAGE(J3:J12)</f>
-        <v>0.71162300109863263</v>
+        <f t="shared" si="0"/>
+        <v>0.44346499741077372</v>
       </c>
       <c r="K16" s="2">
-        <f>AVERAGE(K3:K12)</f>
-        <v>0.59947369694709729</v>
+        <f t="shared" si="0"/>
+        <v>0.3499123945832246</v>
       </c>
       <c r="L16" s="2">
-        <f>AVERAGE(L3:L12)</f>
-        <v>0.32808279991149863</v>
+        <f t="shared" si="0"/>
+        <v>0.13053949922323183</v>
       </c>
       <c r="M16" s="2">
-        <f>AVERAGE(M3:M12)</f>
-        <v>0.34890920221805538</v>
+        <f t="shared" si="0"/>
+        <v>0.13617409840226138</v>
       </c>
       <c r="N16" s="2">
-        <f>AVERAGE(N3:N12)</f>
-        <v>0.31151469945907539</v>
+        <f t="shared" si="0"/>
+        <v>0.10843970030546166</v>
       </c>
     </row>
     <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -54152,7 +53957,7 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:N12"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54188,7 +53993,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -54235,40 +54040,40 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.12853400409221599</v>
+        <v>5.8182999491691499E-2</v>
       </c>
       <c r="D3">
-        <v>0.119364999234676</v>
+        <v>5.3119000047445297E-2</v>
       </c>
       <c r="E3">
-        <v>0.12853400409221599</v>
+        <v>5.8182999491691499E-2</v>
       </c>
       <c r="F3">
-        <v>0.16550199687480899</v>
+        <v>8.9996002614498097E-2</v>
       </c>
       <c r="G3">
-        <v>0.16414999961853</v>
+        <v>8.9073002338409396E-2</v>
       </c>
       <c r="H3">
-        <v>0.16550199687480899</v>
+        <v>8.9996002614498097E-2</v>
       </c>
       <c r="I3">
-        <v>0.64254397153854304</v>
+        <v>0.51228100061416604</v>
       </c>
       <c r="J3">
-        <v>0.63771897554397505</v>
+        <v>0.50745600461959794</v>
       </c>
       <c r="K3">
-        <v>0.64254397153854304</v>
+        <v>0.51228100061416604</v>
       </c>
       <c r="L3">
-        <v>0.14469400048255901</v>
+        <v>7.0675000548362704E-2</v>
       </c>
       <c r="M3">
-        <v>0.13821999728679599</v>
+        <v>6.6550001502037007E-2</v>
       </c>
       <c r="N3">
-        <v>0.14469400048255901</v>
+        <v>7.0675000548362704E-2</v>
       </c>
     </row>
     <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -54279,40 +54084,40 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.17867800593376101</v>
+        <v>8.3970002830028506E-2</v>
       </c>
       <c r="D4">
-        <v>0.22147600352764099</v>
+        <v>0.127535000443458</v>
       </c>
       <c r="E4">
-        <v>0.18249900639057101</v>
+        <v>0.106251001358032</v>
       </c>
       <c r="F4">
-        <v>0.150676995515823</v>
+        <v>7.1175001561641693E-2</v>
       </c>
       <c r="G4">
-        <v>0.14529900252819</v>
+        <v>6.53669983148574E-2</v>
       </c>
       <c r="H4">
-        <v>0.114546000957489</v>
+        <v>4.6755999326705898E-2</v>
       </c>
       <c r="I4">
-        <v>0.59868401288986195</v>
+        <v>0.45964899659156799</v>
       </c>
       <c r="J4">
-        <v>0.581579029560089</v>
+        <v>0.44517499208450301</v>
       </c>
       <c r="K4">
-        <v>0.48728099465370101</v>
+        <v>0.36403501033782898</v>
       </c>
       <c r="L4">
-        <v>0.16348700225353199</v>
+        <v>7.7045001089572906E-2</v>
       </c>
       <c r="M4">
-        <v>0.17547699809074399</v>
+        <v>8.6433999240398393E-2</v>
       </c>
       <c r="N4">
-        <v>0.14075000584125499</v>
+        <v>6.4935997128486606E-2</v>
       </c>
     </row>
     <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -54323,40 +54128,40 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.18264800310134799</v>
+        <v>9.2142999172210693E-2</v>
       </c>
       <c r="D5">
-        <v>0.206980004906654</v>
+        <v>0.119975000619888</v>
       </c>
       <c r="E5">
-        <v>0.20490300655364899</v>
+        <v>0.123657003045082</v>
       </c>
       <c r="F5">
-        <v>0.13911199569702101</v>
+        <v>5.3909000009298297E-2</v>
       </c>
       <c r="G5">
-        <v>0.13784399628639199</v>
+        <v>5.5222000926733003E-2</v>
       </c>
       <c r="H5">
-        <v>8.1265002489089896E-2</v>
+        <v>2.89869997650384E-2</v>
       </c>
       <c r="I5">
-        <v>0.56228101253509499</v>
+        <v>0.38859599828719998</v>
       </c>
       <c r="J5">
-        <v>0.55657899379730202</v>
+        <v>0.396052986383438</v>
       </c>
       <c r="K5">
-        <v>0.36052599549293501</v>
+        <v>0.25087699294090199</v>
       </c>
       <c r="L5">
-        <v>0.157933995127677</v>
+        <v>6.8021997809410095E-2</v>
       </c>
       <c r="M5">
-        <v>0.165481001138687</v>
+        <v>7.5631998479366302E-2</v>
       </c>
       <c r="N5">
-        <v>0.116374999284744</v>
+        <v>4.6964000910520498E-2</v>
       </c>
     </row>
     <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -54367,40 +54172,40 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.20949800312519001</v>
+        <v>0.122380003333091</v>
       </c>
       <c r="D6">
-        <v>0.20303900539875</v>
+        <v>0.124208003282547</v>
       </c>
       <c r="E6">
-        <v>0.19812600314617099</v>
+        <v>0.119356997311115</v>
       </c>
       <c r="F6">
-        <v>0.133965998888015</v>
+        <v>4.80160005390644E-2</v>
       </c>
       <c r="G6">
-        <v>0.13006700575351701</v>
+        <v>5.0195001065731E-2</v>
       </c>
       <c r="H6">
-        <v>7.5832001864910098E-2</v>
+        <v>2.6328999549150401E-2</v>
       </c>
       <c r="I6">
-        <v>0.53114002943038896</v>
+        <v>0.360087990760803</v>
       </c>
       <c r="J6">
-        <v>0.51973700523376398</v>
+        <v>0.36622801423072798</v>
       </c>
       <c r="K6">
-        <v>0.33947399258613498</v>
+        <v>0.23201799392700101</v>
       </c>
       <c r="L6">
-        <v>0.16342699527740401</v>
+        <v>6.8971000611782005E-2</v>
       </c>
       <c r="M6">
-        <v>0.15855999290943101</v>
+        <v>7.1497000753879505E-2</v>
       </c>
       <c r="N6">
-        <v>0.109682999551296</v>
+        <v>4.31419983506202E-2</v>
       </c>
     </row>
     <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -54411,40 +54216,40 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.17868299782276101</v>
+        <v>0.10445400327444</v>
       </c>
       <c r="D7">
-        <v>0.20319800078868799</v>
+        <v>0.13795499503612499</v>
       </c>
       <c r="E7">
-        <v>0.212702006101608</v>
+        <v>0.13122999668121299</v>
       </c>
       <c r="F7">
-        <v>0.11067699640989299</v>
+        <v>3.84490005671978E-2</v>
       </c>
       <c r="G7">
-        <v>0.10650199651718099</v>
+        <v>3.7066001445055001E-2</v>
       </c>
       <c r="H7">
-        <v>7.6909996569156605E-2</v>
+        <v>2.6079000905156101E-2</v>
       </c>
       <c r="I7">
-        <v>0.45789501070976202</v>
+        <v>0.30570200085639898</v>
       </c>
       <c r="J7">
-        <v>0.42719298601150502</v>
+        <v>0.28947401046752902</v>
       </c>
       <c r="K7">
-        <v>0.33421099185943598</v>
+        <v>0.226753994822502</v>
       </c>
       <c r="L7">
-        <v>0.13668799400329501</v>
+        <v>5.6207999587059E-2</v>
       </c>
       <c r="M7">
-        <v>0.13975499570369701</v>
+        <v>5.8432999998331001E-2</v>
       </c>
       <c r="N7">
-        <v>0.112971000373363</v>
+        <v>4.3510999530553797E-2</v>
       </c>
     </row>
     <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -54455,40 +54260,40 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.183833003044128</v>
+        <v>0.116350002586841</v>
       </c>
       <c r="D8">
-        <v>0.20347200334072099</v>
+        <v>0.13185299932956601</v>
       </c>
       <c r="E8">
-        <v>0.21661899983882901</v>
+        <v>0.13398499786853699</v>
       </c>
       <c r="F8">
-        <v>9.3659996986389105E-2</v>
+        <v>3.25669981539249E-2</v>
       </c>
       <c r="G8">
-        <v>9.8226003348827307E-2</v>
+        <v>3.3002000302076298E-2</v>
       </c>
       <c r="H8">
-        <v>7.1370996534824302E-2</v>
+        <v>2.3351000621914801E-2</v>
       </c>
       <c r="I8">
-        <v>0.39429798722267101</v>
+        <v>0.26886001229286099</v>
       </c>
       <c r="J8">
-        <v>0.398245990276336</v>
+        <v>0.26666700839996299</v>
       </c>
       <c r="K8">
-        <v>0.31359601020812899</v>
+        <v>0.20745599269866899</v>
       </c>
       <c r="L8">
-        <v>0.124095998704433</v>
+        <v>5.0889000296592699E-2</v>
       </c>
       <c r="M8">
-        <v>0.132492005825042</v>
+        <v>5.27909994125366E-2</v>
       </c>
       <c r="N8">
-        <v>0.107367001473903</v>
+        <v>3.97699996829032E-2</v>
       </c>
     </row>
     <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -54499,40 +54304,40 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.20237299799919101</v>
+        <v>0.11632700264453801</v>
       </c>
       <c r="D9">
-        <v>0.20446799695491699</v>
+        <v>0.13041800260543801</v>
       </c>
       <c r="E9">
-        <v>0.21049000322818701</v>
+        <v>0.12883499264717099</v>
       </c>
       <c r="F9">
-        <v>8.4421001374721499E-2</v>
+        <v>2.6902999728917999E-2</v>
       </c>
       <c r="G9">
-        <v>8.9256003499030998E-2</v>
+        <v>3.1018000096082601E-2</v>
       </c>
       <c r="H9">
-        <v>6.3190996646881104E-2</v>
+        <v>2.0371999591588901E-2</v>
       </c>
       <c r="I9">
-        <v>0.35964900255203203</v>
+        <v>0.23333300650119701</v>
       </c>
       <c r="J9">
-        <v>0.36666700243949801</v>
+        <v>0.25438600778579701</v>
       </c>
       <c r="K9">
-        <v>0.28201800584793002</v>
+        <v>0.18640400469303101</v>
       </c>
       <c r="L9">
-        <v>0.11914200335741</v>
+        <v>4.3699998408555901E-2</v>
       </c>
       <c r="M9">
-        <v>0.124266996979713</v>
+        <v>5.0115998834371497E-2</v>
       </c>
       <c r="N9">
-        <v>9.7200997173786094E-2</v>
+        <v>3.5179998725652598E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -54543,40 +54348,40 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.194571003317832</v>
+        <v>0.12039999663829801</v>
       </c>
       <c r="D10">
-        <v>0.205544993281364</v>
+        <v>0.13104900717735199</v>
       </c>
       <c r="E10">
-        <v>0.20539900660514801</v>
+        <v>0.130221992731094</v>
       </c>
       <c r="F10">
-        <v>6.8801999092101995E-2</v>
+        <v>2.36130002886056E-2</v>
       </c>
       <c r="G10">
-        <v>8.0995999276638003E-2</v>
+        <v>2.7248999103903701E-2</v>
       </c>
       <c r="H10">
-        <v>5.52639998495578E-2</v>
+        <v>1.82460006326437E-2</v>
       </c>
       <c r="I10">
-        <v>0.30394700169563199</v>
+        <v>0.20877200365066501</v>
       </c>
       <c r="J10">
-        <v>0.33947399258613498</v>
+        <v>0.23026299476623499</v>
       </c>
       <c r="K10">
-        <v>0.25043898820876997</v>
+        <v>0.167981997132301</v>
       </c>
       <c r="L10">
-        <v>0.10165700316429099</v>
+        <v>3.9482999593019402E-2</v>
       </c>
       <c r="M10">
-        <v>0.116201996803283</v>
+        <v>4.5116998255252803E-2</v>
       </c>
       <c r="N10">
-        <v>8.7094001471996293E-2</v>
+        <v>3.2007001340389203E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -54587,40 +54392,40 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.19850899279117501</v>
+        <v>0.124164000153541</v>
       </c>
       <c r="D11">
-        <v>0.20928800106048501</v>
+        <v>0.132156997919082</v>
       </c>
       <c r="E11">
-        <v>0.20633399486541701</v>
+        <v>0.130731001496315</v>
       </c>
       <c r="F11">
-        <v>6.6644996404647799E-2</v>
+        <v>2.2661000490188599E-2</v>
       </c>
       <c r="G11">
-        <v>7.5875997543334905E-2</v>
+        <v>2.49620005488395E-2</v>
       </c>
       <c r="H11">
-        <v>5.3840000182390199E-2</v>
+        <v>1.7602000385522801E-2</v>
       </c>
       <c r="I11">
-        <v>0.29385998845100397</v>
+        <v>0.20306999981403301</v>
       </c>
       <c r="J11">
-        <v>0.31973698735237099</v>
+        <v>0.21666699647903401</v>
       </c>
       <c r="K11">
-        <v>0.24649100005626601</v>
+        <v>0.16359600424766499</v>
       </c>
       <c r="L11">
-        <v>9.9788002669811193E-2</v>
+        <v>3.8327999413013403E-2</v>
       </c>
       <c r="M11">
-        <v>0.111374996602535</v>
+        <v>4.1992001235485001E-2</v>
       </c>
       <c r="N11">
-        <v>8.5396997630596105E-2</v>
+        <v>3.1027000397443699E-2</v>
       </c>
     </row>
     <row r="12" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -54631,40 +54436,40 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.19930100440979001</v>
+        <v>0.120229996740818</v>
       </c>
       <c r="D12">
-        <v>0.20408299565315199</v>
+        <v>0.12989999353885601</v>
       </c>
       <c r="E12">
-        <v>0.20371800661087</v>
+        <v>0.12905800342559801</v>
       </c>
       <c r="F12">
-        <v>6.1918001621961503E-2</v>
+        <v>2.1158000454306599E-2</v>
       </c>
       <c r="G12">
-        <v>6.6147997975349399E-2</v>
+        <v>2.2143000736832601E-2</v>
       </c>
       <c r="H12">
-        <v>5.2011001855134902E-2</v>
+        <v>1.78340002894401E-2</v>
       </c>
       <c r="I12">
-        <v>0.27894699573516801</v>
+        <v>0.193421006202697</v>
       </c>
       <c r="J12">
-        <v>0.28771901130676197</v>
+        <v>0.19736799597740101</v>
       </c>
       <c r="K12">
-        <v>0.242543995380401</v>
+        <v>0.166666999459266</v>
       </c>
       <c r="L12">
-        <v>9.4481997191905906E-2</v>
+        <v>3.59839983284473E-2</v>
       </c>
       <c r="M12">
-        <v>9.9912002682685797E-2</v>
+        <v>3.7836000323295503E-2</v>
       </c>
       <c r="N12">
-        <v>8.2864999771118095E-2</v>
+        <v>3.1337998807430198E-2</v>
       </c>
     </row>
     <row r="13" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -54750,55 +54555,55 @@
     <row r="16" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2">
-        <f>AVERAGE(C3:C12)</f>
-        <v>0.18566280156373921</v>
+        <f t="shared" ref="C16:N16" si="0">AVERAGE(C3:C12)</f>
+        <v>0.10586010068654976</v>
       </c>
       <c r="D16" s="2">
-        <f>AVERAGE(D3:D12)</f>
-        <v>0.1980914004147048</v>
+        <f t="shared" si="0"/>
+        <v>0.12181689999997573</v>
       </c>
       <c r="E16" s="2">
-        <f>AVERAGE(E3:E12)</f>
-        <v>0.19693240374326659</v>
+        <f t="shared" si="0"/>
+        <v>0.11915089860558485</v>
       </c>
       <c r="F16" s="2">
-        <f>AVERAGE(F3:F12)</f>
-        <v>0.10753799788653831</v>
+        <f t="shared" si="0"/>
+        <v>4.2844700440764397E-2</v>
       </c>
       <c r="G16" s="2">
-        <f>AVERAGE(G3:G12)</f>
-        <v>0.10943640023469905</v>
+        <f t="shared" si="0"/>
+        <v>4.3529700487852055E-2</v>
       </c>
       <c r="H16" s="2">
-        <f>AVERAGE(H3:H12)</f>
-        <v>8.0973199382424282E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.155520036816592E-2</v>
       </c>
       <c r="I16" s="2">
-        <f>AVERAGE(I3:I12)</f>
-        <v>0.44232450127601569</v>
+        <f t="shared" si="0"/>
+        <v>0.31337720155715887</v>
       </c>
       <c r="J16" s="2">
-        <f>AVERAGE(J3:J12)</f>
-        <v>0.44346499741077372</v>
+        <f t="shared" si="0"/>
+        <v>0.31697370111942258</v>
       </c>
       <c r="K16" s="2">
-        <f>AVERAGE(K3:K12)</f>
-        <v>0.3499123945832246</v>
+        <f t="shared" si="0"/>
+        <v>0.24780699908733322</v>
       </c>
       <c r="L16" s="2">
-        <f>AVERAGE(L3:L12)</f>
-        <v>0.13053949922323183</v>
+        <f t="shared" si="0"/>
+        <v>5.4930499568581537E-2</v>
       </c>
       <c r="M16" s="2">
-        <f>AVERAGE(M3:M12)</f>
-        <v>0.13617409840226138</v>
+        <f t="shared" si="0"/>
+        <v>5.863979980349536E-2</v>
       </c>
       <c r="N16" s="2">
-        <f>AVERAGE(N3:N12)</f>
-        <v>0.10843970030546166</v>
+        <f t="shared" si="0"/>
+        <v>4.3854999542236275E-2</v>
       </c>
     </row>
     <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
